--- a/data/2024_2.xlsx
+++ b/data/2024_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28007"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_오션ICT_학생제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FCFA06DF-1BD9-49A6-B0F9-6D6D67C66F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00140830-46F1-CB47-9ED6-B89E37E09AD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A27E11-D8C5-4268-BA11-5193763B5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{65DE6A28-D80C-427F-AA88-4E0774EDEF8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="_2차합격자_발표일">[1]수시2차!$L$3:$L$40</definedName>
     <definedName name="_2학년학번">#REF!</definedName>
     <definedName name="_9.7모의점수_표준800만점">[1]수시2차!$O$3:$O$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">팀별!$A$4:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">팀별!$A$4:$T$105</definedName>
     <definedName name="_학번이름최종">[3]인적사항!#REF!</definedName>
     <definedName name="a">[4]교육청!$A$1:$E$177</definedName>
     <definedName name="q">[4]교육청!$A$1:$E$177</definedName>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="394">
   <si>
     <t>제7회 BSS Ocean ICT Festival 참가자 명단(팀별)_96팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,6 +164,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>링크 주소 이상내용_0813</t>
+  </si>
+  <si>
     <t>누락된 내용_0805</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,6 +195,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/0Mm7suCj5Ig?si=FMAOYEXFpypYKsj8</t>
+  </si>
+  <si>
     <t>미제출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,6 +229,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/KNTRxJocCwA?si=ejb1yXhJDCiHGYqN</t>
+  </si>
+  <si>
     <t>링크주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,6 +246,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/0gNUpnYtogE?si=0NyEMVpE5whb-0XX</t>
+  </si>
+  <si>
     <t>차트QR, 링크주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,6 +269,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=4i9Y0u8i1p0</t>
+  </si>
+  <si>
     <t>폼즈만 제출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,8 +311,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/QZ0GG0HRhq8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://youtu.be/miFpBJTfryU</t>
   </si>
   <si>
     <t>Ocean GPT</t>
@@ -314,6 +328,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>부곽표류기</t>
+  </si>
+  <si>
     <t>집단지성 활용 해양 모니터링 시스템 제작</t>
   </si>
   <si>
@@ -321,6 +338,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=jFC3fvV5r0g</t>
+  </si>
+  <si>
+    <t>Pinpoint</t>
+  </si>
+  <si>
     <t>무단 투기된 쓰레기 신고 어플리케이션 개발</t>
   </si>
   <si>
@@ -328,6 +351,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/EFcR48lvgOs?si=EG1btW8FzzzPN0rO</t>
+  </si>
+  <si>
     <t>노무라입깃해파리</t>
   </si>
   <si>
@@ -369,8 +395,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/GomuZLXbsNU?si=bwABobaCQKIr6KnL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.youtube.com/watch?v=kchisHdG5T0&amp;list=PLiyIHcjyCB6StxWOTgUTkrQrUh26a7-ye&amp;index=3</t>
   </si>
   <si>
     <t>디버깅 마스터</t>
@@ -383,6 +408,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>팀즈 파일 없음</t>
+  </si>
+  <si>
     <t>별미</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -423,6 +451,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://m.youtube.com/watch?v=0A6afC6yvJY</t>
+  </si>
+  <si>
     <t>링크주소, 썸네일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,8 +510,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/Rqp7ZOreQ6M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.youtube.com/watch?app=desktop&amp;v=-7UznafNKXs&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>PH-1</t>
@@ -525,6 +555,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>제목 양식</t>
+  </si>
+  <si>
     <t>해병</t>
   </si>
   <si>
@@ -588,6 +621,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=OxVU7XHNh-U</t>
+  </si>
+  <si>
+    <t>JOW</t>
+  </si>
+  <si>
     <t xml:space="preserve">해파리 생체 모방 바다 환경 감시 로봇 제작 </t>
   </si>
   <si>
@@ -614,13 +653,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맹그로브숲의 면적변화예측과 자연재해, 대기중 온실가스와의 연관성 탐구</t>
+    <t>수온변화에 따른 우리나라의 해양 생태계 변화 예측</t>
   </si>
   <si>
     <t>B-22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/PSQ_ncSt7R4?si=YXbC-C0EbLYm-X1K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>푸리에 변환과 선형회귀를 이용한 해양소음 분석 및 노이즈캔슬링</t>
   </si>
   <si>
@@ -647,6 +692,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>빈산소수괴 예측 프로그램 제작을 통한 해양생태계 보존</t>
+  </si>
+  <si>
     <t>B-25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -655,15 +703,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>핑크폽이</t>
+    <t xml:space="preserve">화물 배치 조정을 통한 화물선의 효율적인 선회시스템 개발 </t>
   </si>
   <si>
     <t>B-26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/2HnfCJDegEI?si=QXq8nYpG19OokgNB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://youtu.be/3lUMRPj2vdE?si=X2-ZXOJjziPcpLqn</t>
   </si>
   <si>
     <t>썸네일</t>
@@ -681,6 +728,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>잘못된 동영상</t>
+  </si>
+  <si>
     <t>온도와 해류 변화에 따른 성게 서식지 변화 예측</t>
   </si>
   <si>
@@ -779,15 +829,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>엘니뇨 라니냐에 영향을 주는 요인과 예측 프로그램</t>
+    <t>https://youtu.be/ECBwkrGuUN8?si=QDsCRWroQcS7VX0K</t>
+  </si>
+  <si>
+    <t>지구온난화적 요인을 고려한 엘니뇨&amp;라니냐 예측 프로그램 제작</t>
   </si>
   <si>
     <t>B-37</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/C1yinAEL1KE?si=ajNAk_yltvcZtScx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.youtube.com/watch?v=92rYWp97qJk</t>
   </si>
   <si>
     <t>해양 산성화 정도가 심각할 것으로 예상되는 지역 찾기</t>
@@ -801,6 +853,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>해양 생물 질병 예측하기</t>
+  </si>
+  <si>
     <t>B-39</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -816,7 +871,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선박평형수로 인한 생태계 교란 예측 모델구축하기</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?app=desktop&amp;v=tkN7sIzBzwE </t>
+  </si>
+  <si>
+    <t>해양 폐기물 위치 &amp; 유형 파악을 통한 폐기물 수거 효율 증진</t>
   </si>
   <si>
     <t>B-41</t>
@@ -827,11 +885,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>해양 소음 오염 예측 및 분석</t>
+  </si>
+  <si>
     <t>B-42</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기름 유출시 이동경로를 예측하는 시뮬레이션 제작하기 </t>
+    <t>https://www.youtube.com/watch?v=rOiplQb0ByI</t>
+  </si>
+  <si>
+    <t>기름 유출시 이동경로를 예측하는 시뮬레이션 구축</t>
   </si>
   <si>
     <t>B-43</t>
@@ -842,10 +906,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>어획량 데이터 및 해상 데이터를 활용한 수자원 보호 AI 학습</t>
+  </si>
+  <si>
     <t>B-44</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/O06SWvI-36E?si=kSWHB4fhDIVMiE2X</t>
+  </si>
+  <si>
     <t>AI학습을 통한 해양생물종 구분</t>
   </si>
   <si>
@@ -853,8 +923,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/Yq3at56ubho</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://youtu.be/1rVRhl-EHZg?si=h6QyTr8yNfKtqxpP</t>
   </si>
   <si>
     <t>초콜릿 무스</t>
@@ -874,7 +943,7 @@
     <t>세모di와네모ck</t>
   </si>
   <si>
-    <t>북해 돌고래의 이동 경로 분석을 통한 보호</t>
+    <t>전류로 해양생물을 살려보자!</t>
   </si>
   <si>
     <t>B-47</t>
@@ -895,6 +964,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/kXr-zigsARk?si=-YDi6_5g0WdDQyFL</t>
+  </si>
+  <si>
     <t>심신안정</t>
   </si>
   <si>
@@ -905,7 +977,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/LpdP6TTOmWs?si=JFmwrgj75ZIwTitz</t>
+    <t>https://youtu.be/LpdP6TTOmWs?si=spj-cuYSExPnUG3G</t>
   </si>
   <si>
     <t>3학년3반</t>
@@ -964,6 +1036,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/kIf_yR_XE-8?si=K0-hWuLHH61wgCYh</t>
+  </si>
+  <si>
     <t>차트QR, 썸네일,링크주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -978,6 +1053,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/nvhr6xXM-Gg?si=5OiJbZ-t4Tsa5EEv</t>
+  </si>
+  <si>
     <t>장발장발장</t>
   </si>
   <si>
@@ -988,6 +1066,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/4Bx__DkMO6M?si=RuE0HU3OzS0nRPnX</t>
+  </si>
+  <si>
     <t>영서진 짜예쁘다</t>
   </si>
   <si>
@@ -998,6 +1079,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/QF60t-Wn0x4</t>
+  </si>
+  <si>
     <t xml:space="preserve">가위바위보 </t>
   </si>
   <si>
@@ -1025,6 +1109,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/s0bSETEMY1Y?si=Wntmqae5DHQl9-TB</t>
+  </si>
+  <si>
     <t>부산갈맷길</t>
   </si>
   <si>
@@ -1125,12 +1212,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/izIHP6CXnAg?si=X6xaDCThfRxSwgp9</t>
+  </si>
+  <si>
     <t>CNN을 활용한 트로마츠 웨이브 최적화</t>
   </si>
   <si>
     <t>C-10</t>
   </si>
   <si>
+    <t>https://youtu.be/4Y1Nloso6AE?si=YKsjPHI_iKfimfgV</t>
+  </si>
+  <si>
     <t>해양 선박 침몰 예방을 위한 와류 에측 프로그램 제작</t>
   </si>
   <si>
@@ -1151,7 +1244,13 @@
     <t>C-12</t>
   </si>
   <si>
-    <t>언어 모델 활용한 선박간 교신 결측 예측</t>
+    <t>https://youtu.be/ryU6wELdAcI?si=AZ0nLcHzYUuywAeA</t>
+  </si>
+  <si>
+    <t>?¿‽</t>
+  </si>
+  <si>
+    <t>인공지능을 활용한 금지어종 판단</t>
   </si>
   <si>
     <t>C-13</t>
@@ -1161,6 +1260,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>기상레이더의 바람 데이터를 조사해 3D 파고 데이터 구현</t>
+  </si>
+  <si>
     <t>C-14</t>
   </si>
   <si>
@@ -1240,6 +1342,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>일부 공개</t>
+  </si>
+  <si>
     <t>해저 광물 자원 채굴의 경제적 잠재력 분석</t>
   </si>
   <si>
@@ -1270,7 +1375,9 @@
   </si>
   <si>
     <t>https://m.site.naver.com/1qSEG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 링크 큐알 안 열림</t>
   </si>
   <si>
     <t>수온와 수심 등의 변화에 따른 최적의 양식장 위치 변화 예측</t>
@@ -1284,6 +1391,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Yang-K</t>
+  </si>
+  <si>
     <t>조력 발전의 조차와 발전량 관계 시각화</t>
   </si>
   <si>
@@ -1291,14 +1401,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/A29SOxQmW-U?si=7pGAP07f3Q2D_KHC</t>
+  </si>
+  <si>
     <t>해양 염분 데이터를 이용한 해수전지의 적절한 위치 선정</t>
   </si>
   <si>
     <t>D-10</t>
   </si>
   <si>
-    <t>https://youtu.be/we2uMnW7SE0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://www.youtube.com/watch?v=KAzsRDFsD3g</t>
   </si>
   <si>
     <t>독도 근처의 해양자원의 분포 조사 및 이용방식 탐구</t>
@@ -1307,19 +1419,31 @@
     <t>D-11</t>
   </si>
   <si>
+    <t>https://youtu.be/ksMhpZkaLtw?si=aViId0B5-Hx_Gzaw</t>
+  </si>
+  <si>
     <t>시기별 황금어장 어디에 있을까?</t>
   </si>
   <si>
     <t>D-12</t>
   </si>
   <si>
+    <t>https://youtu.be/OZAcBg-B8H8?si=LpaXD7ubS-lWsA9h</t>
+  </si>
+  <si>
     <t>해양 자원의 이용 기반 구축</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>해양풍력 적합 지역 찾기 &amp; 머신러닝을 이용한 발전량 예측</t>
+  </si>
+  <si>
     <t>D-13</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wgdNzdov8AE&amp;feature=youtu.be</t>
+  </si>
+  <si>
     <t>BSI</t>
   </si>
   <si>
@@ -1353,16 +1477,13 @@
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈산소수괴 예측 프로그램 제작을 통한 해양생태계 보존</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,6 +1518,57 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1452,7 +1624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1501,12 +1673,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1562,13 +1827,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,7 +1900,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -2231,115 +2545,119 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M35" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="7.671875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="31.9375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9296875" style="1" customWidth="1"/>
-    <col min="6" max="11" width="10.1484375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.91015625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.984375" style="1" customWidth="1"/>
-    <col min="14" max="18" width="6.3125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.44921875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.03515625" style="1"/>
+    <col min="1" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="10.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="19" width="6.375" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="43.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" ht="32.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+    </row>
+    <row r="2" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="O3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22" t="s">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:20" ht="32.25" customHeight="1">
+      <c r="A4" s="40"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="4" t="s">
         <v>16</v>
       </c>
@@ -2352,4085 +2670,4276 @@
       <c r="R4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="23"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" ht="33">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="C5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
         <v>1110</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
         <v>1112</v>
       </c>
-      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="M5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="6">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1208</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
+        <v>28</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6666</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
         <v>1218</v>
       </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
+      <c r="P6" s="6"/>
       <c r="Q6" s="6">
         <v>1</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="33">
       <c r="A7" s="6">
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+        <v>31</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
         <v>1312</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
         <v>1313</v>
       </c>
-      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
+      <c r="P7" s="6"/>
       <c r="Q7" s="6">
         <v>1</v>
       </c>
       <c r="R7" s="6">
         <v>1</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="33">
       <c r="A8" s="6">
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
         <v>1401</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
         <v>1403</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <v>1202</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="M8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S8" s="6"/>
+      <c r="T8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="33">
       <c r="A9" s="6">
         <v>88</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="10">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10">
         <v>3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="11">
         <v>3306</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11">
+      <c r="H9" s="10"/>
+      <c r="I9" s="11">
         <v>3412</v>
       </c>
-      <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="33">
       <c r="A10" s="6">
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
+        <v>48</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <v>1417</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8">
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
         <v>1419</v>
       </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="M10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
+      <c r="P10" s="6"/>
       <c r="Q10" s="6">
         <v>1</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="6">
         <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="12">
+        <v>52</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="12">
         <v>2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="13">
         <v>2109</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13">
+      <c r="H11" s="12"/>
+      <c r="I11" s="13">
         <v>2110</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
         <v>2112</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="6"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="6"/>
+      <c r="T11" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="33">
       <c r="A12" s="6">
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="12">
+        <v>55</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>2317</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
+      <c r="H12" s="12"/>
+      <c r="I12" s="13">
         <v>2318</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
         <v>2319</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="6"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="33">
       <c r="A13" s="6">
         <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="12">
+        <v>59</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="13">
         <v>2404</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
+      <c r="H13" s="12"/>
+      <c r="I13" s="13">
         <v>2409</v>
       </c>
-      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="6"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="6"/>
+      <c r="T13" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="33">
       <c r="A14" s="6">
         <v>68</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="12">
+        <v>62</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12">
         <v>2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G14" s="13">
         <v>2414</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13">
         <v>2416</v>
       </c>
-      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="6"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="6">
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="33">
       <c r="A15" s="6">
         <v>82</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="10">
+        <v>66</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>3207</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
+      <c r="H15" s="10"/>
+      <c r="I15" s="11">
         <v>3409</v>
       </c>
-      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R15" s="6"/>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
+        <v>71</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
         <v>1102</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8">
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
         <v>1306</v>
       </c>
-      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="L16" s="7"/>
       <c r="M16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S16" s="6"/>
+      <c r="T16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="33">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
+        <v>76</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>1103</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
         <v>1104</v>
       </c>
-      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S17" s="6"/>
+      <c r="T17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="49.5">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
+        <v>80</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
         <v>1105</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
         <v>1106</v>
       </c>
-      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="6"/>
+      <c r="T18" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="49.5">
       <c r="A19" s="6">
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
+        <v>83</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
         <v>1111</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
         <v>1505</v>
       </c>
-      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="6">
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
+        <v>88</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
         <v>1113</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8">
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
         <v>1116</v>
       </c>
-      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="L20" s="7"/>
       <c r="M20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O20" s="6"/>
-      <c r="P20" s="6">
-        <v>1</v>
-      </c>
+      <c r="P20" s="6"/>
       <c r="Q20" s="6">
         <v>1</v>
       </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="33">
       <c r="A21" s="6">
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
+        <v>92</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>1114</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
         <v>1118</v>
       </c>
-      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="L21" s="7"/>
       <c r="M21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S21" s="6"/>
+      <c r="T21" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="33">
       <c r="A22" s="6">
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
+        <v>95</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
         <v>1203</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8">
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
         <v>1214</v>
       </c>
-      <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="33">
       <c r="A23" s="6">
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
+        <v>101</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
         <v>1205</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8">
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
         <v>1211</v>
       </c>
-      <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="L23" s="7"/>
       <c r="M23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6">
+        <v>1</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="49.5">
       <c r="A24" s="6">
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
+        <v>105</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
         <v>1303</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8">
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
         <v>1304</v>
       </c>
-      <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="L24" s="7"/>
       <c r="M24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S24" s="6"/>
+      <c r="T24" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="6">
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
+        <v>109</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
         <v>1305</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8">
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
         <v>1408</v>
       </c>
-      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="O25" s="6"/>
-      <c r="P25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S25" s="6"/>
+      <c r="T25" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="49.5">
       <c r="A26" s="6">
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
+        <v>113</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
         <v>1307</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8">
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
         <v>1314</v>
       </c>
-      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="S26" s="6"/>
+      <c r="T26" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="49.5">
       <c r="A27" s="6">
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
+        <v>117</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
         <v>1310</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8">
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
         <v>1317</v>
       </c>
-      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="L27" s="7"/>
       <c r="M27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O27" s="6"/>
-      <c r="P27" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S27" s="6"/>
+      <c r="T27" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
       <c r="A28" s="6">
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
+        <v>121</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
         <v>1311</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8">
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
         <v>1316</v>
       </c>
-      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="L28" s="7"/>
       <c r="M28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
+        <v>125</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
         <v>1406</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8">
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
         <v>1415</v>
       </c>
-      <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="L29" s="7"/>
       <c r="M29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6">
-        <v>1</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="33">
       <c r="A30" s="6">
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
+        <v>130</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
         <v>1410</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8">
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
         <v>1418</v>
       </c>
-      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="L30" s="7"/>
       <c r="M30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N30" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6">
+        <v>1</v>
+      </c>
       <c r="R30" s="6"/>
-      <c r="S30" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="S30" s="6"/>
+      <c r="T30" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="33">
       <c r="A31" s="6">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
+        <v>134</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
         <v>1501</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8">
+      <c r="H31" s="7"/>
+      <c r="I31" s="8">
         <v>1515</v>
       </c>
-      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="L31" s="7"/>
       <c r="M31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31" s="6">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S31" s="6"/>
+      <c r="T31" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="33">
       <c r="A32" s="6">
         <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
+        <v>138</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
         <v>1509</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8">
+      <c r="H32" s="7"/>
+      <c r="I32" s="8">
         <v>1519</v>
       </c>
-      <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="L32" s="7"/>
       <c r="M32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O32" s="6"/>
-      <c r="P32" s="6">
-        <v>1</v>
-      </c>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6">
         <v>1</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="R32" s="6">
+        <v>1</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="33">
       <c r="A33" s="6">
         <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="12">
+        <v>142</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="12">
         <v>2</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="13">
         <v>2105</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="16">
+      <c r="H33" s="12"/>
+      <c r="I33" s="13">
         <v>2107</v>
       </c>
-      <c r="I33" s="17"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N33" s="6"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S33" s="6"/>
+      <c r="T33" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="33">
       <c r="A34" s="6">
         <v>38</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="12">
+        <v>144</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="12">
         <v>2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G34" s="13">
         <v>2106</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13">
         <v>2108</v>
       </c>
-      <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N34" s="6"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6">
         <v>1</v>
       </c>
-      <c r="S34" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S34" s="6">
+        <v>1</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="33">
       <c r="A35" s="6">
         <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="12">
+        <v>149</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="12">
         <v>2</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G35" s="13">
         <v>2113</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13">
         <v>2116</v>
       </c>
-      <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N35" s="6"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S35" s="6"/>
+      <c r="T35" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="33">
       <c r="A36" s="6">
         <v>41</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="12">
+        <v>153</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="12">
         <v>2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="G36" s="13">
         <v>2114</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13">
+      <c r="H36" s="12"/>
+      <c r="I36" s="13">
         <v>2111</v>
       </c>
-      <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" s="6"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S36" s="6"/>
+      <c r="T36" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="33">
       <c r="A37" s="6">
         <v>42</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12">
+        <v>156</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="12">
         <v>2</v>
       </c>
-      <c r="F37" s="13">
+      <c r="G37" s="13">
         <v>2115</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13">
+      <c r="H37" s="12"/>
+      <c r="I37" s="13">
         <v>2119</v>
       </c>
-      <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N37" s="6">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6"/>
-      <c r="S37" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6">
+        <v>1</v>
+      </c>
+      <c r="S37" s="6"/>
+      <c r="T37" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="6">
         <v>43</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="12">
+        <v>160</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="12">
         <v>2</v>
       </c>
-      <c r="F38" s="13">
+      <c r="G38" s="13">
         <v>2201</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13">
+      <c r="H38" s="12"/>
+      <c r="I38" s="13">
         <v>2203</v>
       </c>
-      <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N38" s="6"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S38" s="6"/>
+      <c r="T38" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="33">
       <c r="A39" s="6">
         <v>45</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="12">
+        <v>163</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="12">
         <v>2</v>
       </c>
-      <c r="F39" s="13">
+      <c r="G39" s="13">
         <v>2205</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13">
+      <c r="H39" s="12"/>
+      <c r="I39" s="13">
         <v>2211</v>
       </c>
-      <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="6"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S39" s="6"/>
+      <c r="T39" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="33">
       <c r="A40" s="6">
         <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="12">
+        <v>167</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="12">
         <v>2</v>
       </c>
-      <c r="F40" s="13">
+      <c r="G40" s="13">
         <v>2208</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13">
+      <c r="H40" s="12"/>
+      <c r="I40" s="13">
         <v>2217</v>
       </c>
-      <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N40" s="6"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S40" s="6"/>
+      <c r="T40" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="33">
       <c r="A41" s="6">
         <v>50</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="12">
+        <v>170</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="13">
+      <c r="G41" s="13">
         <v>2212</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13">
+      <c r="H41" s="12"/>
+      <c r="I41" s="13">
         <v>2215</v>
       </c>
-      <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" s="6"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S41" s="6"/>
+      <c r="T41" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="6">
         <v>51</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="12">
+        <v>174</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="12">
         <v>2</v>
       </c>
-      <c r="F42" s="13">
+      <c r="G42" s="13">
         <v>2214</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13">
+      <c r="H42" s="12"/>
+      <c r="I42" s="13">
         <v>2217</v>
       </c>
-      <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="6"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O42" s="6"/>
-      <c r="P42" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6">
+        <v>1</v>
+      </c>
       <c r="R42" s="6"/>
-      <c r="S42" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S42" s="6"/>
+      <c r="T42" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="33">
       <c r="A43" s="6">
         <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="12">
+        <v>178</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="12">
         <v>2</v>
       </c>
-      <c r="F43" s="13">
+      <c r="G43" s="13">
         <v>2301</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13">
+      <c r="H43" s="12"/>
+      <c r="I43" s="13">
         <v>2302</v>
       </c>
-      <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N43" s="6"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O43" s="6"/>
-      <c r="P43" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6">
+        <v>1</v>
+      </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S43" s="6"/>
+      <c r="T43" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="33">
       <c r="A44" s="6">
         <v>53</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="12">
+        <v>181</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="12">
         <v>2</v>
       </c>
-      <c r="F44" s="13">
+      <c r="G44" s="13">
         <v>2303</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13">
+      <c r="H44" s="12"/>
+      <c r="I44" s="13">
         <v>2314</v>
       </c>
-      <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N44" s="6">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6">
-        <v>1</v>
-      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1</v>
+      </c>
+      <c r="P44" s="6"/>
       <c r="Q44" s="6">
         <v>1</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="R44" s="6">
+        <v>1</v>
+      </c>
+      <c r="S44" s="6"/>
+      <c r="T44" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="33">
       <c r="A45" s="6">
         <v>54</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="12">
+        <v>184</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="12">
         <v>2</v>
       </c>
-      <c r="F45" s="13">
+      <c r="G45" s="13">
         <v>2304</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13">
+      <c r="H45" s="12"/>
+      <c r="I45" s="13">
         <v>2305</v>
       </c>
-      <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N45" s="6"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S45" s="6"/>
+      <c r="T45" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="33">
       <c r="A46" s="6">
         <v>57</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="12">
+        <v>188</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="12">
         <v>2</v>
       </c>
-      <c r="F46" s="13">
+      <c r="G46" s="13">
         <v>2308</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13">
+      <c r="H46" s="12"/>
+      <c r="I46" s="13">
         <v>2315</v>
       </c>
-      <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N46" s="6"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O46" s="6"/>
-      <c r="P46" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6">
+        <v>1</v>
+      </c>
       <c r="R46" s="6"/>
-      <c r="S46" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S46" s="6"/>
+      <c r="T46" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="6">
         <v>58</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="12">
+        <v>191</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="12">
         <v>2</v>
       </c>
-      <c r="F47" s="13">
+      <c r="G47" s="13">
         <v>2310</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13">
+      <c r="H47" s="12"/>
+      <c r="I47" s="13">
         <v>2313</v>
       </c>
-      <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N47" s="6">
-        <v>1</v>
-      </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6">
-        <v>1</v>
-      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47" s="6">
+        <v>1</v>
+      </c>
+      <c r="P47" s="6"/>
       <c r="Q47" s="6">
         <v>1</v>
       </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="R47" s="6">
+        <v>1</v>
+      </c>
+      <c r="S47" s="6"/>
+      <c r="T47" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="33">
       <c r="A48" s="6">
         <v>61</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="12">
+        <v>194</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="12">
         <v>2</v>
       </c>
-      <c r="F48" s="13">
+      <c r="G48" s="13">
         <v>2401</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13">
+      <c r="H48" s="12"/>
+      <c r="I48" s="13">
         <v>2411</v>
       </c>
-      <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6">
-        <v>1</v>
-      </c>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6">
-        <v>1</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="L48" s="12"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
+        <v>1</v>
+      </c>
+      <c r="S48" s="6"/>
+      <c r="T48" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="33">
       <c r="A49" s="6">
         <v>62</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="12">
+        <v>197</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="12">
         <v>2</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G49" s="13">
         <v>2402</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13">
+      <c r="H49" s="12"/>
+      <c r="I49" s="13">
         <v>2403</v>
       </c>
-      <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N49" s="6">
-        <v>1</v>
-      </c>
-      <c r="O49" s="6"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49" s="6">
+        <v>1</v>
+      </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="6">
-        <v>1</v>
-      </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6">
+        <v>1</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="33">
       <c r="A50" s="6">
         <v>64</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="12">
+        <v>200</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="12">
         <v>2</v>
       </c>
-      <c r="F50" s="13">
+      <c r="G50" s="13">
         <v>2405</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13">
+      <c r="H50" s="12"/>
+      <c r="I50" s="13">
         <v>2410</v>
       </c>
-      <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N50" s="6"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O50" s="6"/>
-      <c r="P50" s="6">
-        <v>1</v>
-      </c>
+      <c r="P50" s="6"/>
       <c r="Q50" s="6">
         <v>1</v>
       </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R50" s="6">
+        <v>1</v>
+      </c>
+      <c r="S50" s="6"/>
+      <c r="T50" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="33">
       <c r="A51" s="6">
         <v>65</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="12">
+        <v>202</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="12">
         <v>2</v>
       </c>
-      <c r="F51" s="13">
+      <c r="G51" s="13">
         <v>2406</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13">
+      <c r="H51" s="12"/>
+      <c r="I51" s="13">
         <v>2407</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12">
         <v>2412</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N51" s="6">
-        <v>1</v>
-      </c>
-      <c r="O51" s="6"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" s="6">
+        <v>1</v>
+      </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="6">
-        <v>1</v>
-      </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6">
+        <v>1</v>
+      </c>
+      <c r="S51" s="6"/>
+      <c r="T51" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="33">
       <c r="A52" s="6">
         <v>67</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="12">
+        <v>206</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="12">
         <v>2</v>
       </c>
-      <c r="F52" s="13">
+      <c r="G52" s="13">
         <v>2413</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13">
+      <c r="H52" s="12"/>
+      <c r="I52" s="13">
         <v>2419</v>
       </c>
-      <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N52" s="6"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S52" s="6"/>
+      <c r="T52" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="6">
         <v>70</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="12">
+        <v>209</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="12">
         <v>2</v>
       </c>
-      <c r="F53" s="13">
+      <c r="G53" s="13">
         <v>2501</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13">
+      <c r="H53" s="12"/>
+      <c r="I53" s="13">
         <v>2502</v>
       </c>
-      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N53" s="6"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O53" s="6"/>
-      <c r="P53" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6">
+        <v>1</v>
+      </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="9"/>
-    </row>
-    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S53" s="6"/>
+      <c r="T53" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="33">
       <c r="A54" s="6">
         <v>71</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="12">
+        <v>212</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="12">
         <v>2</v>
       </c>
-      <c r="F54" s="13">
+      <c r="G54" s="13">
         <v>2503</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13">
+      <c r="H54" s="12"/>
+      <c r="I54" s="13">
         <v>2504</v>
       </c>
-      <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N54" s="6"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O54" s="6"/>
-      <c r="P54" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6">
+        <v>1</v>
+      </c>
       <c r="R54" s="6"/>
-      <c r="S54" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S54" s="6"/>
+      <c r="T54" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="33">
       <c r="A55" s="6">
         <v>72</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="12">
+        <v>214</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="12">
         <v>2</v>
       </c>
-      <c r="F55" s="13">
+      <c r="G55" s="13">
         <v>2505</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13">
+      <c r="H55" s="12"/>
+      <c r="I55" s="13">
         <v>2506</v>
       </c>
-      <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6">
-        <v>1</v>
-      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="6"/>
       <c r="P55" s="6">
         <v>1</v>
       </c>
-      <c r="Q55" s="6"/>
+      <c r="Q55" s="6">
+        <v>1</v>
+      </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S55" s="6"/>
+      <c r="T55" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="33">
       <c r="A56" s="6">
         <v>73</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="12">
+        <v>218</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="12">
         <v>2</v>
       </c>
-      <c r="F56" s="13">
+      <c r="G56" s="13">
         <v>2507</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13">
+      <c r="H56" s="12"/>
+      <c r="I56" s="13">
         <v>2514</v>
       </c>
-      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N56" s="6"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="9"/>
-    </row>
-    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S56" s="6"/>
+      <c r="T56" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="33">
       <c r="A57" s="6">
         <v>74</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="12">
+        <v>220</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="12">
         <v>2</v>
       </c>
-      <c r="F57" s="13">
+      <c r="G57" s="13">
         <v>2508</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="16">
+      <c r="H57" s="12"/>
+      <c r="I57" s="16">
         <v>2510</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="17"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N57" s="6">
-        <v>1</v>
-      </c>
-      <c r="O57" s="6"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57" s="6">
+        <v>1</v>
+      </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="6">
-        <v>1</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6">
+        <v>1</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="33">
       <c r="A58" s="6">
         <v>77</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="12">
+        <v>224</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="12">
         <v>2</v>
       </c>
-      <c r="F58" s="13">
+      <c r="G58" s="13">
         <v>2513</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13">
+      <c r="H58" s="12"/>
+      <c r="I58" s="13">
         <v>2516</v>
       </c>
-      <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N58" s="6"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="9"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S58" s="6"/>
+      <c r="T58" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="33">
       <c r="A59" s="6">
         <v>78</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="12">
+        <v>226</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="12">
         <v>2</v>
       </c>
-      <c r="F59" s="13">
+      <c r="G59" s="13">
         <v>2517</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13">
+      <c r="H59" s="12"/>
+      <c r="I59" s="13">
         <v>2518</v>
       </c>
-      <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N59" s="6"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S59" s="6"/>
+      <c r="T59" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="33">
       <c r="A60" s="6">
         <v>80</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="10">
+        <v>230</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="10">
         <v>3</v>
       </c>
-      <c r="F60" s="11">
+      <c r="G60" s="11">
         <v>3103</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11">
+      <c r="H60" s="10"/>
+      <c r="I60" s="11">
         <v>3404</v>
       </c>
-      <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="9" t="s">
-        <v>206</v>
-      </c>
+      <c r="L60" s="10"/>
       <c r="M60" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N60" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O60" s="6"/>
-      <c r="P60" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6">
+        <v>1</v>
+      </c>
       <c r="R60" s="6"/>
-      <c r="S60" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="6"/>
+      <c r="T60" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="6">
         <v>83</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="10">
+        <v>234</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="10">
         <v>3</v>
       </c>
-      <c r="F61" s="11">
+      <c r="G61" s="11">
         <v>3209</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11">
+      <c r="H61" s="10"/>
+      <c r="I61" s="11">
         <v>3312</v>
       </c>
-      <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="L61" s="10"/>
       <c r="M61" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N61" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O61" s="6"/>
-      <c r="P61" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6">
+        <v>1</v>
+      </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S61" s="6"/>
+      <c r="T61" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="33">
       <c r="A62" s="6">
         <v>84</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="10">
+        <v>238</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="10">
         <v>3</v>
       </c>
-      <c r="F62" s="11">
+      <c r="G62" s="11">
         <v>3213</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11">
+      <c r="H62" s="10"/>
+      <c r="I62" s="11">
         <v>3310</v>
       </c>
-      <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
-      <c r="L62" s="9" t="s">
-        <v>214</v>
-      </c>
+      <c r="L62" s="10"/>
       <c r="M62" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6">
-        <v>1</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O62" s="6"/>
       <c r="P62" s="6">
         <v>1</v>
       </c>
-      <c r="Q62" s="6"/>
+      <c r="Q62" s="6">
+        <v>1</v>
+      </c>
       <c r="R62" s="6"/>
-      <c r="S62" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S62" s="6"/>
+      <c r="T62" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="33">
       <c r="A63" s="6">
         <v>85</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="10">
+        <v>241</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="10">
         <v>3</v>
       </c>
-      <c r="F63" s="11">
+      <c r="G63" s="11">
         <v>3301</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11">
+      <c r="H63" s="10"/>
+      <c r="I63" s="11">
         <v>3302</v>
       </c>
-      <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-      <c r="L63" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="L63" s="10"/>
       <c r="M63" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6">
-        <v>1</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O63" s="6"/>
       <c r="P63" s="6">
         <v>1</v>
       </c>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6">
-        <v>1</v>
-      </c>
-      <c r="S63" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q63" s="6">
+        <v>1</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6">
+        <v>1</v>
+      </c>
+      <c r="T63" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="33">
       <c r="A64" s="6">
         <v>86</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="10">
+        <v>246</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="10">
         <v>3</v>
       </c>
-      <c r="F64" s="11">
+      <c r="G64" s="11">
         <v>3303</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11">
+      <c r="H64" s="10"/>
+      <c r="I64" s="11">
         <v>3308</v>
       </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10">
+      <c r="J64" s="10"/>
+      <c r="K64" s="10">
         <v>3313</v>
       </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="9" t="s">
-        <v>221</v>
-      </c>
+      <c r="L64" s="10"/>
       <c r="M64" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N64" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O64" s="6"/>
-      <c r="P64" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6">
+        <v>1</v>
+      </c>
       <c r="R64" s="6"/>
-      <c r="S64" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S64" s="6"/>
+      <c r="T64" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="33">
       <c r="A65" s="6">
         <v>87</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="10">
+        <v>250</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="10">
         <v>3</v>
       </c>
-      <c r="F65" s="11">
+      <c r="G65" s="11">
         <v>3305</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11">
+      <c r="H65" s="10"/>
+      <c r="I65" s="11">
         <v>3514</v>
       </c>
-      <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-      <c r="L65" s="9" t="s">
-        <v>225</v>
-      </c>
+      <c r="L65" s="10"/>
       <c r="M65" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N65" s="6">
-        <v>1</v>
-      </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O65" s="6">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6">
+        <v>1</v>
+      </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S65" s="6"/>
+      <c r="T65" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="6">
         <v>89</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E66" s="10">
+        <v>254</v>
+      </c>
+      <c r="D66" s="36"/>
+      <c r="E66" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="10">
         <v>3</v>
       </c>
-      <c r="F66" s="11">
+      <c r="G66" s="11">
         <v>3307</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11">
+      <c r="H66" s="10"/>
+      <c r="I66" s="11">
         <v>3311</v>
       </c>
-      <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
-      <c r="L66" s="9" t="s">
-        <v>230</v>
-      </c>
+      <c r="L66" s="10"/>
       <c r="M66" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N66" s="6">
-        <v>1</v>
-      </c>
-      <c r="O66" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O66" s="6">
+        <v>1</v>
+      </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
-      <c r="S66" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S66" s="6"/>
+      <c r="T66" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="33">
       <c r="A67" s="6">
         <v>91</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E67" s="10">
+        <v>259</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67" s="10">
         <v>3</v>
       </c>
-      <c r="F67" s="11">
+      <c r="G67" s="11">
         <v>3401</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11">
+      <c r="H67" s="10"/>
+      <c r="I67" s="11">
         <v>3501</v>
       </c>
-      <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
-      <c r="L67" s="9" t="s">
-        <v>234</v>
-      </c>
+      <c r="L67" s="10"/>
       <c r="M67" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N67" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O67" s="6"/>
-      <c r="P67" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6">
+        <v>1</v>
+      </c>
       <c r="R67" s="6"/>
-      <c r="S67" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S67" s="6"/>
+      <c r="T67" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="49.5">
       <c r="A68" s="6">
         <v>92</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="10">
+        <v>262</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" s="10">
         <v>3</v>
       </c>
-      <c r="F68" s="11">
+      <c r="G68" s="11">
         <v>3402</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11">
+      <c r="H68" s="10"/>
+      <c r="I68" s="11">
         <v>3410</v>
       </c>
-      <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
-      <c r="L68" s="9" t="s">
-        <v>238</v>
-      </c>
+      <c r="L68" s="10"/>
       <c r="M68" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N68" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q68" s="6"/>
       <c r="R68" s="6">
         <v>1</v>
       </c>
-      <c r="S68" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="6">
+        <v>1</v>
+      </c>
+      <c r="T68" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="33">
       <c r="A69" s="6">
         <v>93</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="10">
+        <v>267</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="10">
         <v>3</v>
       </c>
-      <c r="F69" s="11">
+      <c r="G69" s="11">
         <v>3405</v>
       </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11">
+      <c r="H69" s="10"/>
+      <c r="I69" s="11">
         <v>3406</v>
       </c>
-      <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="L69" s="10"/>
       <c r="M69" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N69" s="6">
-        <v>1</v>
-      </c>
-      <c r="O69" s="6"/>
+        <v>269</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O69" s="6">
+        <v>1</v>
+      </c>
       <c r="P69" s="6"/>
-      <c r="Q69" s="6">
-        <v>1</v>
-      </c>
-      <c r="R69" s="6"/>
-      <c r="S69" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6">
+        <v>1</v>
+      </c>
+      <c r="S69" s="6"/>
+      <c r="T69" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="33">
       <c r="A70" s="6">
         <v>94</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="10">
+        <v>271</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="10">
         <v>3</v>
       </c>
-      <c r="F70" s="11">
+      <c r="G70" s="11">
         <v>3502</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11">
+      <c r="H70" s="10"/>
+      <c r="I70" s="11">
         <v>3511</v>
       </c>
-      <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
-      <c r="L70" s="9" t="s">
-        <v>244</v>
-      </c>
+      <c r="L70" s="10"/>
       <c r="M70" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N70" s="6">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="O70" s="6">
         <v>1</v>
       </c>
-      <c r="P70" s="6"/>
+      <c r="P70" s="6">
+        <v>1</v>
+      </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S70" s="6"/>
+      <c r="T70" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="6">
         <v>95</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="10">
+        <v>275</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="10">
         <v>3</v>
       </c>
-      <c r="F71" s="11">
+      <c r="G71" s="11">
         <v>3503</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11">
+      <c r="H71" s="10"/>
+      <c r="I71" s="11">
         <v>3508</v>
       </c>
-      <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-      <c r="L71" s="9" t="s">
-        <v>247</v>
-      </c>
+      <c r="L71" s="10"/>
       <c r="M71" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N71" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O71" s="6"/>
-      <c r="P71" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6">
+        <v>1</v>
+      </c>
       <c r="R71" s="6"/>
-      <c r="S71" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S71" s="6"/>
+      <c r="T71" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="6">
         <v>11</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="7">
-        <v>1</v>
-      </c>
-      <c r="F72" s="8">
+        <v>280</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="8">
         <v>1206</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8">
+      <c r="H72" s="7"/>
+      <c r="I72" s="8">
         <v>1213</v>
       </c>
-      <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="L72" s="7"/>
       <c r="M72" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N72" s="6">
-        <v>1</v>
-      </c>
-      <c r="O72" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1</v>
+      </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
-      <c r="S72" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S72" s="6"/>
+      <c r="T72" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="33">
       <c r="A73" s="6">
         <v>14</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="7">
-        <v>1</v>
-      </c>
-      <c r="F73" s="8">
+        <v>284</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8">
         <v>1215</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8">
+      <c r="H73" s="7"/>
+      <c r="I73" s="8">
         <v>1217</v>
       </c>
-      <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="9" t="s">
-        <v>255</v>
-      </c>
+      <c r="L73" s="7"/>
       <c r="M73" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N73" s="6">
-        <v>1</v>
-      </c>
-      <c r="O73" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O73" s="6">
+        <v>1</v>
+      </c>
       <c r="P73" s="6"/>
-      <c r="Q73" s="6">
-        <v>1</v>
-      </c>
-      <c r="R73" s="6"/>
-      <c r="S73" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6">
+        <v>1</v>
+      </c>
+      <c r="S73" s="6"/>
+      <c r="T73" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="33">
       <c r="A74" s="6">
         <v>15</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E74" s="7">
-        <v>1</v>
-      </c>
-      <c r="F74" s="8">
+        <v>289</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74" s="8">
         <v>1301</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8">
+      <c r="H74" s="7"/>
+      <c r="I74" s="8">
         <v>1302</v>
       </c>
-      <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="9" t="s">
-        <v>259</v>
-      </c>
+      <c r="L74" s="7"/>
       <c r="M74" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="N74" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
-      <c r="S74" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S74" s="6"/>
+      <c r="T74" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="6">
         <v>23</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="7">
-        <v>1</v>
-      </c>
-      <c r="F75" s="8">
+        <v>294</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="7">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8">
         <v>1402</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8">
+      <c r="H75" s="7"/>
+      <c r="I75" s="8">
         <v>1416</v>
       </c>
-      <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="L75" s="7"/>
       <c r="M75" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N75" s="6">
-        <v>1</v>
-      </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O75" s="6">
+        <v>1</v>
+      </c>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6">
+        <v>1</v>
+      </c>
       <c r="R75" s="6"/>
-      <c r="S75" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S75" s="6"/>
+      <c r="T75" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="33">
       <c r="A76" s="6">
         <v>29</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="8">
+        <v>298</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="7">
+        <v>1</v>
+      </c>
+      <c r="G76" s="8">
         <v>1502</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8">
+      <c r="H76" s="7"/>
+      <c r="I76" s="8">
         <v>1503</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7">
+      <c r="J76" s="7"/>
+      <c r="K76" s="7">
         <v>1405</v>
       </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="9" t="s">
-        <v>268</v>
-      </c>
+      <c r="L76" s="7"/>
       <c r="M76" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N76" s="6">
-        <v>1</v>
-      </c>
-      <c r="O76" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O76" s="6">
+        <v>1</v>
+      </c>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6">
-        <v>1</v>
-      </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6">
+        <v>1</v>
+      </c>
+      <c r="S76" s="6"/>
+      <c r="T76" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="33">
       <c r="A77" s="6">
         <v>30</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="8">
+        <v>302</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="8">
         <v>1506</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8">
+      <c r="H77" s="7"/>
+      <c r="I77" s="8">
         <v>1511</v>
       </c>
-      <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="9" t="s">
-        <v>272</v>
-      </c>
+      <c r="L77" s="7"/>
       <c r="M77" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N77" s="6">
-        <v>1</v>
-      </c>
-      <c r="O77" s="6"/>
+        <v>303</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O77" s="6">
+        <v>1</v>
+      </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
-      <c r="S77" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S77" s="6"/>
+      <c r="T77" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="33">
       <c r="A78" s="6">
         <v>31</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="7">
-        <v>1</v>
-      </c>
-      <c r="F78" s="8">
+        <v>306</v>
+      </c>
+      <c r="D78" s="30"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78" s="8">
         <v>1507</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8">
+      <c r="H78" s="7"/>
+      <c r="I78" s="8">
         <v>1510</v>
       </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="8">
+      <c r="J78" s="7"/>
+      <c r="K78" s="8">
         <v>1517</v>
       </c>
-      <c r="K78" s="7"/>
-      <c r="L78" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="L78" s="7"/>
       <c r="M78" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N78" s="6">
-        <v>1</v>
-      </c>
-      <c r="O78" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O78" s="6">
+        <v>1</v>
+      </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
-      <c r="S78" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S78" s="6"/>
+      <c r="T78" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="33">
       <c r="A79" s="6">
         <v>33</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
-      <c r="F79" s="8">
+        <v>310</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="8">
         <v>1513</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8">
+      <c r="H79" s="7"/>
+      <c r="I79" s="8">
         <v>1514</v>
       </c>
-      <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="L79" s="7"/>
       <c r="M79" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N79" s="6">
-        <v>1</v>
-      </c>
-      <c r="O79" s="6"/>
+        <v>311</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1</v>
+      </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
-      <c r="S79" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S79" s="6"/>
+      <c r="T79" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="33">
       <c r="A80" s="6">
         <v>36</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="12">
+        <v>313</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="12">
         <v>2</v>
       </c>
-      <c r="F80" s="13">
+      <c r="G80" s="13">
         <v>2104</v>
       </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13">
+      <c r="H80" s="12"/>
+      <c r="I80" s="13">
         <v>2118</v>
       </c>
-      <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N80" s="6"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
-      <c r="S80" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S80" s="6"/>
+      <c r="T80" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="33">
       <c r="A81" s="6">
         <v>55</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="12">
+        <v>316</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="27"/>
+      <c r="E81" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="12">
         <v>2</v>
       </c>
-      <c r="F81" s="13">
+      <c r="G81" s="13">
         <v>2306</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13">
+      <c r="H81" s="12"/>
+      <c r="I81" s="13">
         <v>2311</v>
       </c>
-      <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N81" s="6"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-      <c r="S81" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S81" s="6"/>
+      <c r="T81" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="33">
       <c r="A82" s="6">
         <v>56</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" s="12">
+        <v>320</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F82" s="12">
         <v>2</v>
       </c>
-      <c r="F82" s="13">
+      <c r="G82" s="13">
         <v>2307</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13">
+      <c r="H82" s="12"/>
+      <c r="I82" s="13">
         <v>2312</v>
       </c>
-      <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N82" s="6"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
-      <c r="R82" s="6">
-        <v>1</v>
-      </c>
-      <c r="S82" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R82" s="6"/>
+      <c r="S82" s="6">
+        <v>1</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="33">
       <c r="A83" s="6">
         <v>69</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="12">
+        <v>323</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" s="27"/>
+      <c r="E83" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="12">
         <v>2</v>
       </c>
-      <c r="F83" s="13">
+      <c r="G83" s="13">
         <v>2417</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13">
+      <c r="H83" s="12"/>
+      <c r="I83" s="13">
         <v>2418</v>
       </c>
-      <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N83" s="6"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
-      <c r="S83" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S83" s="6"/>
+      <c r="T83" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="33">
       <c r="A84" s="6">
         <v>76</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="12">
+        <v>328</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="12">
         <v>2</v>
       </c>
-      <c r="F84" s="13">
+      <c r="G84" s="13">
         <v>2512</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="13">
+      <c r="H84" s="12"/>
+      <c r="I84" s="13">
         <v>2515</v>
       </c>
-      <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N84" s="6"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-      <c r="S84" s="9"/>
-    </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S84" s="6"/>
+      <c r="T84" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="33">
       <c r="A85" s="6">
         <v>79</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E85" s="10">
+        <v>331</v>
+      </c>
+      <c r="D85" s="30"/>
+      <c r="E85" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="10">
         <v>3</v>
       </c>
-      <c r="F85" s="11">
+      <c r="G85" s="11">
         <v>3101</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11">
+      <c r="H85" s="10"/>
+      <c r="I85" s="11">
         <v>3105</v>
       </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="11">
+      <c r="J85" s="10"/>
+      <c r="K85" s="11">
         <v>3203</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="9" t="s">
-        <v>296</v>
-      </c>
+      <c r="L85" s="10"/>
       <c r="M85" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N85" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O85" s="6"/>
-      <c r="P85" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6">
+        <v>1</v>
+      </c>
       <c r="R85" s="6"/>
-      <c r="S85" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S85" s="6"/>
+      <c r="T85" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="33">
       <c r="A86" s="6">
         <v>90</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" s="10">
+        <v>335</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="10">
         <v>3</v>
       </c>
-      <c r="F86" s="11">
+      <c r="G86" s="11">
         <v>3314</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="11">
+      <c r="H86" s="10"/>
+      <c r="I86" s="11">
         <v>3505</v>
       </c>
-      <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
-      <c r="L86" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N86" s="6">
-        <v>1</v>
+        <v>336</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="O86" s="6">
         <v>1</v>
       </c>
-      <c r="P86" s="6"/>
+      <c r="P86" s="6">
+        <v>1</v>
+      </c>
       <c r="Q86" s="6"/>
-      <c r="R86" s="6">
-        <v>1</v>
-      </c>
-      <c r="S86" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="R86" s="6"/>
+      <c r="S86" s="6">
+        <v>1</v>
+      </c>
+      <c r="T86" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="33">
       <c r="A87" s="6">
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="7">
-        <v>1</v>
-      </c>
-      <c r="F87" s="8">
+        <v>339</v>
+      </c>
+      <c r="D87" s="31"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="8">
         <v>1117</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8">
+      <c r="H87" s="7"/>
+      <c r="I87" s="8">
         <v>1409</v>
       </c>
-      <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="9" t="s">
-        <v>304</v>
-      </c>
+      <c r="L87" s="7"/>
       <c r="M87" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N87" s="6">
-        <v>1</v>
-      </c>
-      <c r="O87" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O87" s="6">
+        <v>1</v>
+      </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
-      <c r="S87" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S87" s="6"/>
+      <c r="T87" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="33">
       <c r="A88" s="6">
         <v>12</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="7">
-        <v>1</v>
-      </c>
-      <c r="F88" s="8">
+        <v>344</v>
+      </c>
+      <c r="D88" s="30"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="8">
         <v>1207</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8">
+      <c r="H88" s="7"/>
+      <c r="I88" s="8">
         <v>1216</v>
       </c>
-      <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="9" t="s">
-        <v>309</v>
-      </c>
+      <c r="L88" s="7"/>
       <c r="M88" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N88" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="6">
-        <v>1</v>
-      </c>
-      <c r="R88" s="6"/>
-      <c r="S88" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6">
+        <v>1</v>
+      </c>
+      <c r="S88" s="6"/>
+      <c r="T88" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="6">
         <v>25</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="7">
-        <v>1</v>
-      </c>
-      <c r="F89" s="8">
+        <v>348</v>
+      </c>
+      <c r="D89" s="31"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="8">
         <v>1407</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8">
+      <c r="H89" s="7"/>
+      <c r="I89" s="8">
         <v>1413</v>
       </c>
-      <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="9" t="s">
-        <v>313</v>
-      </c>
+      <c r="L89" s="7"/>
       <c r="M89" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N89" s="6">
-        <v>1</v>
-      </c>
-      <c r="O89" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O89" s="6">
+        <v>1</v>
+      </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
-      <c r="S89" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S89" s="6"/>
+      <c r="T89" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="33">
       <c r="A90" s="6">
         <v>34</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="12">
+        <v>352</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" s="25"/>
+      <c r="F90" s="12">
         <v>2</v>
       </c>
-      <c r="F90" s="13">
+      <c r="G90" s="13">
         <v>2101</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13">
+      <c r="H90" s="12"/>
+      <c r="I90" s="13">
         <v>2117</v>
       </c>
-      <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N90" s="6">
-        <v>1</v>
-      </c>
-      <c r="O90" s="6"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O90" s="6">
+        <v>1</v>
+      </c>
       <c r="P90" s="6"/>
-      <c r="Q90" s="6">
-        <v>1</v>
-      </c>
-      <c r="R90" s="6"/>
-      <c r="S90" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6">
+        <v>1</v>
+      </c>
+      <c r="S90" s="6"/>
+      <c r="T90" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="6">
         <v>35</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="12">
+        <v>356</v>
+      </c>
+      <c r="D91" s="30"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="12">
         <v>2</v>
       </c>
-      <c r="F91" s="13">
+      <c r="G91" s="13">
         <v>2102</v>
       </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="13">
+      <c r="H91" s="12"/>
+      <c r="I91" s="13">
         <v>2103</v>
       </c>
-      <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N91" s="6"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O91" s="6"/>
-      <c r="P91" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6">
-        <v>1</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6">
+        <v>1</v>
+      </c>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6">
+        <v>1</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="33">
       <c r="A92" s="6">
         <v>44</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="12">
+        <v>359</v>
+      </c>
+      <c r="D92" s="32"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="12">
         <v>2</v>
       </c>
-      <c r="F92" s="13">
+      <c r="G92" s="13">
         <v>2202</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13">
+      <c r="H92" s="12"/>
+      <c r="I92" s="13">
         <v>2204</v>
       </c>
-      <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N92" s="6"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S92" s="6"/>
+      <c r="T92" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="33">
       <c r="A93" s="6">
         <v>46</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="12">
+        <v>361</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E93" s="25"/>
+      <c r="F93" s="12">
         <v>2</v>
       </c>
-      <c r="F93" s="13">
+      <c r="G93" s="13">
         <v>2207</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13">
+      <c r="H93" s="12"/>
+      <c r="I93" s="13">
         <v>2216</v>
       </c>
-      <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N93" s="6"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
-      <c r="Q93" s="6">
-        <v>1</v>
-      </c>
-      <c r="R93" s="6"/>
-      <c r="S93" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6">
+        <v>1</v>
+      </c>
+      <c r="S93" s="6"/>
+      <c r="T93" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="33">
       <c r="A94" s="6">
         <v>48</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="12">
+        <v>366</v>
+      </c>
+      <c r="D94" s="30"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="12">
         <v>2</v>
       </c>
-      <c r="F94" s="13">
+      <c r="G94" s="13">
         <v>2209</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13">
+      <c r="H94" s="12"/>
+      <c r="I94" s="13">
         <v>2213</v>
       </c>
-      <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N94" s="6"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
-      <c r="S94" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S94" s="6"/>
+      <c r="T94" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="33">
       <c r="A95" s="6">
         <v>49</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="12">
+        <v>369</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="12">
         <v>2</v>
       </c>
-      <c r="F95" s="13">
+      <c r="G95" s="13">
         <v>2210</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13">
+      <c r="H95" s="12"/>
+      <c r="I95" s="13">
         <v>2219</v>
       </c>
-      <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N95" s="6">
-        <v>1</v>
-      </c>
-      <c r="O95" s="6"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O95" s="6">
+        <v>1</v>
+      </c>
       <c r="P95" s="6"/>
-      <c r="Q95" s="6">
-        <v>1</v>
-      </c>
-      <c r="R95" s="6"/>
-      <c r="S95" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6">
+        <v>1</v>
+      </c>
+      <c r="S95" s="6"/>
+      <c r="T95" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="20.45" customHeight="1">
       <c r="A96" s="6">
         <v>59</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E96" s="12">
+        <v>373</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F96" s="12">
         <v>2</v>
       </c>
-      <c r="F96" s="13">
+      <c r="G96" s="13">
         <v>2316</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13">
+      <c r="H96" s="12"/>
+      <c r="I96" s="13">
         <v>2309</v>
       </c>
-      <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N96" s="6"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
-      <c r="S96" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S96" s="6"/>
+      <c r="T96" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="33">
       <c r="A97" s="6">
         <v>66</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97" s="12">
+        <v>375</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D97" s="27"/>
+      <c r="E97" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="12">
         <v>2</v>
       </c>
-      <c r="F97" s="13">
+      <c r="G97" s="13">
         <v>2408</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13">
+      <c r="H97" s="12"/>
+      <c r="I97" s="13">
         <v>2415</v>
       </c>
-      <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N97" s="6"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
-      <c r="S97" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S97" s="6"/>
+      <c r="T97" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="33">
       <c r="A98" s="6">
         <v>75</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98" s="12">
+        <v>378</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" s="12">
         <v>2</v>
       </c>
-      <c r="F98" s="13">
+      <c r="G98" s="13">
         <v>2509</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13">
+      <c r="H98" s="12"/>
+      <c r="I98" s="13">
         <v>2511</v>
       </c>
-      <c r="I98" s="12"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="N98" s="6"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
-      <c r="S98" s="9"/>
-    </row>
-    <row r="99" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S98" s="6"/>
+      <c r="T98" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="33">
       <c r="A99" s="6">
         <v>81</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="10">
+        <v>382</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="10">
         <v>3</v>
       </c>
-      <c r="F99" s="11">
+      <c r="G99" s="11">
         <v>3111</v>
       </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="11">
+      <c r="H99" s="10"/>
+      <c r="I99" s="11">
         <v>3112</v>
       </c>
-      <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
-      <c r="L99" s="9" t="s">
-        <v>340</v>
-      </c>
+      <c r="L99" s="10"/>
       <c r="M99" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N99" s="6">
-        <v>1</v>
-      </c>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="6"/>
+        <v>384</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O99" s="6">
+        <v>1</v>
+      </c>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6">
+        <v>1</v>
+      </c>
       <c r="R99" s="6"/>
-      <c r="S99" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S99" s="6"/>
+      <c r="T99" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="33">
       <c r="A100" s="6">
         <v>96</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="10">
+      <c r="B100" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="10">
         <v>3</v>
       </c>
-      <c r="F100" s="11">
+      <c r="G100" s="11">
         <v>3506</v>
       </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="11">
+      <c r="H100" s="10"/>
+      <c r="I100" s="11">
         <v>3507</v>
       </c>
-      <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
-      <c r="L100" s="9" t="s">
-        <v>344</v>
-      </c>
+      <c r="L100" s="10"/>
       <c r="M100" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N100" s="6">
-        <v>1</v>
+        <v>388</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="O100" s="6">
         <v>1</v>
       </c>
-      <c r="P100" s="6"/>
+      <c r="P100" s="6">
+        <v>1</v>
+      </c>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
-      <c r="S100" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S100" s="6"/>
+      <c r="T100" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="L101" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M101" s="9">
-        <f>COUNTIF($M$5:$M$100,L101)</f>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="9">
+        <f>COUNTIF($N$5:$N$100,M101)</f>
         <v>11</v>
       </c>
-      <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
-    </row>
-    <row r="102" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="T101" s="9"/>
+    </row>
+    <row r="102" spans="1:20" ht="30">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="L102" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="M102" s="9">
-        <f>COUNTIF($M$5:$M$100,L102)</f>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="N102" s="9">
+        <f>COUNTIF($N$5:$N$100,M102)</f>
         <v>14</v>
       </c>
-      <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T102" s="9"/>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L103" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="M103" s="9">
-        <f>COUNTIF($M$5:$M$100,L103)</f>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N103" s="9">
+        <f>COUNTIF($N$5:$N$100,M103)</f>
         <v>15</v>
       </c>
-      <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103" s="9"/>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L104" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M104" s="9">
-        <f>COUNTIF($M$5:$M$100,L104)</f>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N104" s="9">
+        <f>COUNTIF($N$5:$N$100,M104)</f>
         <v>56</v>
       </c>
-      <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T104" s="9"/>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9">
-        <f>SUM(M101:M104)</f>
+      <c r="L105" s="6"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9">
+        <f>SUM(N101:N104)</f>
         <v>96</v>
       </c>
-      <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:S105" xr:uid="{9E62D17F-A875-496C-BF8D-21790EB24D8D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:S105">
+  <autoFilter ref="A4:T105" xr:uid="{9E62D17F-A875-496C-BF8D-21790EB24D8D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:T105">
       <sortCondition ref="B4:B105"/>
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -6438,9 +6947,10 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D1 A5:XFD1048576">
+  <conditionalFormatting sqref="A1:E1 A93:B93 D93:XFD93 A94:XFD1048576 A92:C92 E92:XFD92 A5:XFD66 A67:C67 E67:XFD67 A68:XFD91">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"해양 선박 관련 기술"</formula>
     </cfRule>
@@ -6454,7 +6964,7 @@
       <formula>"해양 문화와 관광 진흥"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:R1048576">
+  <conditionalFormatting sqref="O2:S1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -6467,81 +6977,108 @@
     <hyperlink ref="C13" r:id="rId5" xr:uid="{CD851C95-7702-4100-AECC-38C66779ABD9}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{1BB10E0D-7429-442E-95AF-F382B9DD8A65}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{A4E8DA22-972A-4E60-8B61-EF2103C3F81D}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{21D013C9-7AD8-4FB2-A295-887B3B54186A}"/>
-    <hyperlink ref="C21" r:id="rId9" xr:uid="{88775C4D-C1EB-400D-97A0-F7D37E4885F7}"/>
-    <hyperlink ref="C23" r:id="rId10" xr:uid="{9E17B3D4-97F8-4F70-B12A-C27834A87009}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{7B613F42-844A-4BB0-B00B-ADFAD962565C}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{2EE83469-1436-4357-89B4-EF2A99C9BFDF}"/>
-    <hyperlink ref="C26" r:id="rId13" xr:uid="{53B95B9C-74B3-4C9C-896E-83A106B078DA}"/>
-    <hyperlink ref="C27" r:id="rId14" xr:uid="{ABB54889-94F9-4CD5-A1FE-D0BAA9A3ACCA}"/>
-    <hyperlink ref="C28" r:id="rId15" xr:uid="{DEC4E0A3-C0CF-48B2-B627-624ADF861572}"/>
-    <hyperlink ref="C29" r:id="rId16" xr:uid="{5D3E4EA5-1688-4DE2-A5DC-DBB06874B9B2}"/>
-    <hyperlink ref="C30" r:id="rId17" xr:uid="{7D22A5AC-1404-4AD3-8ECF-B87852C446E7}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{3E5C06FA-A9E7-42A9-8C61-242F49FEB896}"/>
-    <hyperlink ref="C32" r:id="rId19" xr:uid="{ED61E037-3798-4966-A3E1-591B954F9663}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{645FCF86-3057-4056-BC89-510300D9E496}"/>
-    <hyperlink ref="C35" r:id="rId21" xr:uid="{5DCC6FC3-60EE-4255-B919-60993B73DB55}"/>
-    <hyperlink ref="C36" r:id="rId22" xr:uid="{996E4A6A-EEAD-4159-BB70-CF001E9AE5E1}"/>
-    <hyperlink ref="C37" r:id="rId23" xr:uid="{B7EC8EE4-B3B6-44C7-8BA0-ECD0E891A82E}"/>
-    <hyperlink ref="C38" r:id="rId24" xr:uid="{BF4B42D9-5FB9-402D-9723-31388945FC23}"/>
-    <hyperlink ref="C39" r:id="rId25" xr:uid="{2361CC68-0D41-410E-BB34-EEDB2DC3D5A3}"/>
-    <hyperlink ref="C40" r:id="rId26" xr:uid="{A52B1021-5C71-4C2D-B4AE-327C51B6B49C}"/>
-    <hyperlink ref="C41" r:id="rId27" xr:uid="{87A062CD-A9F3-4B17-B273-399C96431645}"/>
-    <hyperlink ref="C42" r:id="rId28" xr:uid="{FABB3B65-DE12-4972-A29E-34D4A83411D7}"/>
-    <hyperlink ref="C43" r:id="rId29" xr:uid="{F763745C-E980-4C27-8914-49024D199B9D}"/>
-    <hyperlink ref="C44" r:id="rId30" xr:uid="{5A6CE627-2819-43C9-B698-15E5F2C06661}"/>
-    <hyperlink ref="C45" r:id="rId31" xr:uid="{A2E582F4-F2C4-488C-9548-4D28EABCDAE3}"/>
-    <hyperlink ref="C46" r:id="rId32" xr:uid="{A27283A1-B175-4376-A528-6CF17FF04A3C}"/>
-    <hyperlink ref="C47" r:id="rId33" xr:uid="{A03F287C-06D4-4407-8260-C731CA38129C}"/>
-    <hyperlink ref="C48" r:id="rId34" xr:uid="{1CC94D18-DC0F-4485-84A5-1E1BB083DEF0}"/>
-    <hyperlink ref="C50" r:id="rId35" xr:uid="{9FB7C7E4-B7FE-4448-AE93-39E34FF12731}"/>
-    <hyperlink ref="C52" r:id="rId36" xr:uid="{01EE2E33-D3A9-49FB-A9DD-9F2BE8EC426B}"/>
-    <hyperlink ref="C53" r:id="rId37" xr:uid="{92197B58-E265-4BBA-8A1E-B59DC2CF5428}"/>
-    <hyperlink ref="C54" r:id="rId38" xr:uid="{0B67101A-F2A0-4048-A4B1-4D22D2715974}"/>
-    <hyperlink ref="C56" r:id="rId39" xr:uid="{BC1C901E-BA54-4D30-8A5D-0B8E3FDE3DBD}"/>
-    <hyperlink ref="C58" r:id="rId40" xr:uid="{31529508-E834-404B-AF79-B4E8820B4D04}"/>
-    <hyperlink ref="C60" r:id="rId41" xr:uid="{8BB5D46E-6C3E-4220-B800-BEB22AFB568E}"/>
-    <hyperlink ref="C61" r:id="rId42" xr:uid="{C13613A5-1104-400D-A878-CD5271BD225B}"/>
-    <hyperlink ref="C62" r:id="rId43" xr:uid="{8A23C6DF-41D8-476F-9F3C-E03211FF359E}"/>
-    <hyperlink ref="C65" r:id="rId44" xr:uid="{4AF7D3BD-832F-4B8F-9B68-9B9AA235E15F}"/>
-    <hyperlink ref="C66" r:id="rId45" xr:uid="{37D73223-FAA2-4EBC-BA42-7A16632452AE}"/>
-    <hyperlink ref="C67" r:id="rId46" xr:uid="{EEA25343-0824-4238-BEA4-8E45B3F1C07D}"/>
-    <hyperlink ref="C72" r:id="rId47" xr:uid="{A10F438C-8D62-4976-8ED5-FE8CF3AE9F6F}"/>
-    <hyperlink ref="C74" r:id="rId48" xr:uid="{2132EA7B-D2E3-4B07-8131-9FAC309F2319}"/>
-    <hyperlink ref="C75" r:id="rId49" xr:uid="{16D4A8F0-4E12-4C78-8074-85C53ECFD353}"/>
-    <hyperlink ref="C76" r:id="rId50" xr:uid="{77640867-53D5-4246-9A9C-B04BF7B95DFC}"/>
-    <hyperlink ref="C77" r:id="rId51" xr:uid="{EB517E5F-9FB9-4721-9380-FBB9F5A0CA95}"/>
-    <hyperlink ref="C78" r:id="rId52" xr:uid="{B4101B5E-6E22-461D-BDE7-8F53CD191617}"/>
-    <hyperlink ref="C79" r:id="rId53" xr:uid="{B9815564-7AFC-4B12-9ED6-03BF2480F7A4}"/>
-    <hyperlink ref="C82" r:id="rId54" xr:uid="{8AE50934-AA58-4547-B678-F4FDAE4DCB2F}"/>
-    <hyperlink ref="C84" r:id="rId55" xr:uid="{C247307F-749C-4160-92E3-FBC691671901}"/>
-    <hyperlink ref="C85" r:id="rId56" xr:uid="{C28C66C5-EB12-4390-A985-74C7DF9332AF}"/>
-    <hyperlink ref="C86" r:id="rId57" xr:uid="{65A7F1DD-D996-4F41-BF8A-A509ACBE0433}"/>
-    <hyperlink ref="C87" r:id="rId58" xr:uid="{4D90FFF2-6190-40C2-BF6D-3B9C81AE9966}"/>
-    <hyperlink ref="C88" r:id="rId59" xr:uid="{CD6AB2F8-E12B-4BF3-B377-4F11EE32B874}"/>
-    <hyperlink ref="C89" r:id="rId60" xr:uid="{C25284DE-E00E-4324-86EB-DD1B40C26B07}"/>
-    <hyperlink ref="C90" r:id="rId61" xr:uid="{B9869B2E-AF29-4717-BAF4-ED47A3F6C5E5}"/>
-    <hyperlink ref="C91" r:id="rId62" xr:uid="{AA6A5EA8-8EB0-4AD3-B289-E1AC82698F49}"/>
-    <hyperlink ref="C92" r:id="rId63" xr:uid="{63EF1F89-6082-4603-842A-155D7F646C98}"/>
-    <hyperlink ref="C93" r:id="rId64" xr:uid="{003CCFF8-AC0B-470F-80E1-9ECEC4B96CE1}"/>
-    <hyperlink ref="C94" r:id="rId65" xr:uid="{D608344D-9F61-43EF-A274-76C34887C5BD}"/>
-    <hyperlink ref="C96" r:id="rId66" xr:uid="{7E7654C5-B5BC-4864-9247-3DDA80718A91}"/>
-    <hyperlink ref="C100" r:id="rId67" xr:uid="{B46F6EB6-7199-44A7-B618-ADD10203DA0C}"/>
-    <hyperlink ref="C64" r:id="rId68" xr:uid="{24ACB506-6D99-7746-ABF5-1FB66DF87F07}"/>
-    <hyperlink ref="C49" r:id="rId69" xr:uid="{1FE84975-1515-2C4B-81FD-FAC51D8077F6}"/>
+    <hyperlink ref="C21" r:id="rId8" xr:uid="{88775C4D-C1EB-400D-97A0-F7D37E4885F7}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{9E17B3D4-97F8-4F70-B12A-C27834A87009}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{7B613F42-844A-4BB0-B00B-ADFAD962565C}"/>
+    <hyperlink ref="C25" r:id="rId11" xr:uid="{2EE83469-1436-4357-89B4-EF2A99C9BFDF}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{53B95B9C-74B3-4C9C-896E-83A106B078DA}"/>
+    <hyperlink ref="C27" r:id="rId13" xr:uid="{ABB54889-94F9-4CD5-A1FE-D0BAA9A3ACCA}"/>
+    <hyperlink ref="C28" r:id="rId14" xr:uid="{DEC4E0A3-C0CF-48B2-B627-624ADF861572}"/>
+    <hyperlink ref="C29" r:id="rId15" xr:uid="{5D3E4EA5-1688-4DE2-A5DC-DBB06874B9B2}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{7D22A5AC-1404-4AD3-8ECF-B87852C446E7}"/>
+    <hyperlink ref="C31" r:id="rId17" xr:uid="{3E5C06FA-A9E7-42A9-8C61-242F49FEB896}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{ED61E037-3798-4966-A3E1-591B954F9663}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{645FCF86-3057-4056-BC89-510300D9E496}"/>
+    <hyperlink ref="C35" r:id="rId20" xr:uid="{5DCC6FC3-60EE-4255-B919-60993B73DB55}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{996E4A6A-EEAD-4159-BB70-CF001E9AE5E1}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{B7EC8EE4-B3B6-44C7-8BA0-ECD0E891A82E}"/>
+    <hyperlink ref="C38" r:id="rId23" xr:uid="{BF4B42D9-5FB9-402D-9723-31388945FC23}"/>
+    <hyperlink ref="C39" r:id="rId24" xr:uid="{2361CC68-0D41-410E-BB34-EEDB2DC3D5A3}"/>
+    <hyperlink ref="C40" r:id="rId25" xr:uid="{A52B1021-5C71-4C2D-B4AE-327C51B6B49C}"/>
+    <hyperlink ref="C41" r:id="rId26" xr:uid="{87A062CD-A9F3-4B17-B273-399C96431645}"/>
+    <hyperlink ref="C42" r:id="rId27" xr:uid="{FABB3B65-DE12-4972-A29E-34D4A83411D7}"/>
+    <hyperlink ref="C43" r:id="rId28" xr:uid="{F763745C-E980-4C27-8914-49024D199B9D}"/>
+    <hyperlink ref="C44" r:id="rId29" xr:uid="{5A6CE627-2819-43C9-B698-15E5F2C06661}"/>
+    <hyperlink ref="C45" r:id="rId30" xr:uid="{A2E582F4-F2C4-488C-9548-4D28EABCDAE3}"/>
+    <hyperlink ref="C46" r:id="rId31" xr:uid="{A27283A1-B175-4376-A528-6CF17FF04A3C}"/>
+    <hyperlink ref="C47" r:id="rId32" xr:uid="{A03F287C-06D4-4407-8260-C731CA38129C}"/>
+    <hyperlink ref="C48" r:id="rId33" xr:uid="{1CC94D18-DC0F-4485-84A5-1E1BB083DEF0}"/>
+    <hyperlink ref="C50" r:id="rId34" xr:uid="{9FB7C7E4-B7FE-4448-AE93-39E34FF12731}"/>
+    <hyperlink ref="C53" r:id="rId35" xr:uid="{92197B58-E265-4BBA-8A1E-B59DC2CF5428}"/>
+    <hyperlink ref="C54" r:id="rId36" xr:uid="{0B67101A-F2A0-4048-A4B1-4D22D2715974}"/>
+    <hyperlink ref="C56" r:id="rId37" xr:uid="{BC1C901E-BA54-4D30-8A5D-0B8E3FDE3DBD}"/>
+    <hyperlink ref="C58" r:id="rId38" xr:uid="{31529508-E834-404B-AF79-B4E8820B4D04}"/>
+    <hyperlink ref="C61" r:id="rId39" xr:uid="{C13613A5-1104-400D-A878-CD5271BD225B}"/>
+    <hyperlink ref="C62" r:id="rId40" xr:uid="{8A23C6DF-41D8-476F-9F3C-E03211FF359E}"/>
+    <hyperlink ref="C65" r:id="rId41" xr:uid="{4AF7D3BD-832F-4B8F-9B68-9B9AA235E15F}"/>
+    <hyperlink ref="C66" r:id="rId42" xr:uid="{37D73223-FAA2-4EBC-BA42-7A16632452AE}"/>
+    <hyperlink ref="C67" r:id="rId43" xr:uid="{EEA25343-0824-4238-BEA4-8E45B3F1C07D}"/>
+    <hyperlink ref="C72" r:id="rId44" xr:uid="{A10F438C-8D62-4976-8ED5-FE8CF3AE9F6F}"/>
+    <hyperlink ref="C74" r:id="rId45" xr:uid="{2132EA7B-D2E3-4B07-8131-9FAC309F2319}"/>
+    <hyperlink ref="C75" r:id="rId46" xr:uid="{16D4A8F0-4E12-4C78-8074-85C53ECFD353}"/>
+    <hyperlink ref="C76" r:id="rId47" xr:uid="{77640867-53D5-4246-9A9C-B04BF7B95DFC}"/>
+    <hyperlink ref="C77" r:id="rId48" xr:uid="{EB517E5F-9FB9-4721-9380-FBB9F5A0CA95}"/>
+    <hyperlink ref="C78" r:id="rId49" xr:uid="{B4101B5E-6E22-461D-BDE7-8F53CD191617}"/>
+    <hyperlink ref="C79" r:id="rId50" xr:uid="{B9815564-7AFC-4B12-9ED6-03BF2480F7A4}"/>
+    <hyperlink ref="C82" r:id="rId51" xr:uid="{8AE50934-AA58-4547-B678-F4FDAE4DCB2F}"/>
+    <hyperlink ref="C84" r:id="rId52" xr:uid="{C247307F-749C-4160-92E3-FBC691671901}"/>
+    <hyperlink ref="C85" r:id="rId53" xr:uid="{C28C66C5-EB12-4390-A985-74C7DF9332AF}"/>
+    <hyperlink ref="C86" r:id="rId54" xr:uid="{65A7F1DD-D996-4F41-BF8A-A509ACBE0433}"/>
+    <hyperlink ref="C87" r:id="rId55" xr:uid="{4D90FFF2-6190-40C2-BF6D-3B9C81AE9966}"/>
+    <hyperlink ref="C88" r:id="rId56" xr:uid="{CD6AB2F8-E12B-4BF3-B377-4F11EE32B874}"/>
+    <hyperlink ref="C89" r:id="rId57" xr:uid="{C25284DE-E00E-4324-86EB-DD1B40C26B07}"/>
+    <hyperlink ref="C90" r:id="rId58" xr:uid="{B9869B2E-AF29-4717-BAF4-ED47A3F6C5E5}"/>
+    <hyperlink ref="C91" r:id="rId59" xr:uid="{AA6A5EA8-8EB0-4AD3-B289-E1AC82698F49}"/>
+    <hyperlink ref="C92" r:id="rId60" xr:uid="{63EF1F89-6082-4603-842A-155D7F646C98}"/>
+    <hyperlink ref="C94" r:id="rId61" xr:uid="{D608344D-9F61-43EF-A274-76C34887C5BD}"/>
+    <hyperlink ref="C96" r:id="rId62" xr:uid="{7E7654C5-B5BC-4864-9247-3DDA80718A91}"/>
+    <hyperlink ref="C100" r:id="rId63" xr:uid="{B46F6EB6-7199-44A7-B618-ADD10203DA0C}"/>
+    <hyperlink ref="C64" r:id="rId64" xr:uid="{24ACB506-6D99-7746-ABF5-1FB66DF87F07}"/>
+    <hyperlink ref="C49" r:id="rId65" xr:uid="{1FE84975-1515-2C4B-81FD-FAC51D8077F6}"/>
+    <hyperlink ref="C14" r:id="rId66" xr:uid="{51AB3B94-415D-4B53-8B27-E83F5C81208C}"/>
+    <hyperlink ref="C60" r:id="rId67" xr:uid="{E5253AAA-4FFF-7441-907F-6F6BC857C215}"/>
+    <hyperlink ref="C70" r:id="rId68" xr:uid="{539E9829-0CB2-4725-AA8F-434EB2DF7589}"/>
+    <hyperlink ref="C34" r:id="rId69" xr:uid="{6929DA57-4DED-4D87-953C-C216144F7D77}"/>
+    <hyperlink ref="C80" r:id="rId70" xr:uid="{7869B8D4-1E20-49BD-A518-C647E025A164}"/>
+    <hyperlink ref="C99" r:id="rId71" xr:uid="{7EAA2E2B-678C-414E-A300-3AD7BF67ABC4}"/>
+    <hyperlink ref="C22" r:id="rId72" xr:uid="{FAFF65B4-696E-1C4E-98D6-E475E105EFCD}"/>
+    <hyperlink ref="C68" r:id="rId73" xr:uid="{449D5D1D-CAF7-4E7A-8A23-DDC350259C2F}"/>
+    <hyperlink ref="C69" r:id="rId74" xr:uid="{5D637838-9D6F-4402-B5B5-29A234A6675B}"/>
+    <hyperlink ref="C63" r:id="rId75" xr:uid="{091C08C1-E191-40E0-A01B-8807D5F4D75F}"/>
+    <hyperlink ref="C59" r:id="rId76" xr:uid="{74B6D9AA-71D2-4D3D-9338-37C749B34AFE}"/>
+    <hyperlink ref="C55" r:id="rId77" xr:uid="{8B0273F8-F815-41FC-A56B-5E9CC193DFD8}"/>
+    <hyperlink ref="C57" r:id="rId78" xr:uid="{6DB188EF-AEDB-4693-8227-C880EB07DA24}"/>
+    <hyperlink ref="C5" r:id="rId79" xr:uid="{DC89AEAF-75C4-4DAA-BCC5-B4B4959AF05E}"/>
+    <hyperlink ref="C7" r:id="rId80" xr:uid="{1D25E199-B752-4565-B84C-EA60A2DE1214}"/>
+    <hyperlink ref="C8" r:id="rId81" xr:uid="{D7455414-3008-4FDA-9CC4-7B7F529FD4C4}"/>
+    <hyperlink ref="C15" r:id="rId82" xr:uid="{09AB6A6B-04AC-4476-95B7-E0FBC0C5A653}"/>
+    <hyperlink ref="C51" r:id="rId83" xr:uid="{AA896923-D165-4F63-A518-D19ED2DCCD4B}"/>
+    <hyperlink ref="C73" r:id="rId84" xr:uid="{7984AA29-A827-4CD6-89AC-D1AF4BF7F97B}"/>
+    <hyperlink ref="C9" r:id="rId85" xr:uid="{26CFBB9F-1DEE-4671-B9FE-5EF41CFAFEBA}"/>
+    <hyperlink ref="C81" r:id="rId86" xr:uid="{09A50D1D-F7BE-4EBE-ABC5-AC9E5CDCDBE7}"/>
+    <hyperlink ref="C83" r:id="rId87" xr:uid="{43B11CCE-F809-4AEF-BAE2-FD2DE24E6080}"/>
+    <hyperlink ref="C97" r:id="rId88" xr:uid="{1C590889-A00D-4A5F-8CBB-FF050EF2A370}"/>
+    <hyperlink ref="C95" r:id="rId89" xr:uid="{D167FB13-8484-4B03-9235-59622A61ECBC}"/>
+    <hyperlink ref="C98" r:id="rId90" xr:uid="{ABC28189-3758-4348-829A-4F1C07FF601B}"/>
+    <hyperlink ref="C52" r:id="rId91" xr:uid="{D8443740-1E63-4190-8AE6-068DACB6B6D2}"/>
+    <hyperlink ref="C71" r:id="rId92" xr:uid="{09CAE909-5DC9-418E-8455-6BA0ADED58D4}"/>
+    <hyperlink ref="C18" r:id="rId93" xr:uid="{4BFF76A0-3264-4CF4-B268-C15BB1CAEFD8}"/>
+    <hyperlink ref="C93" r:id="rId94" xr:uid="{BD99E754-824A-44F6-A1C4-89E226012665}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId70"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId95"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1ec7bdc9-c35f-44fb-bc12-eea0df72f52c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0085f31d-9ba7-42e2-9355-3cfee2649550" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6745,14 +7282,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3862B381-0521-4BC3-A226-0E3E2025679D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E48C8B-3F93-42B5-BC1A-441EBCBD88B9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1FC132C-DE9F-48AF-9073-6DE7592AF397}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85D601E-4F51-4558-A344-0A26E73BC774}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3862B381-0521-4BC3-A226-0E3E2025679D}"/>
 </file>
--- a/data/2024_2.xlsx
+++ b/data/2024_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_오션ICT_학생제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A27E11-D8C5-4268-BA11-5193763B5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BFA872-0F22-43D3-9D7F-50149353A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{65DE6A28-D80C-427F-AA88-4E0774EDEF8A}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="391">
   <si>
     <t>제7회 BSS Ocean ICT Festival 참가자 명단(팀별)_96팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,7 +164,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>링크 주소 이상내용_0813</t>
+    <t>링크 주소 이상내용_0813 / 0814</t>
   </si>
   <si>
     <t>누락된 내용_0805</t>
@@ -408,7 +408,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>팀즈 파일 없음</t>
+    <t>https://www.youtube.com/watch?v=xinzoji8sbU</t>
   </si>
   <si>
     <t>별미</t>
@@ -427,6 +427,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://youtu.be/cuQ1bILptjw?si=s93SbFUMLrUdB6PU</t>
+  </si>
+  <si>
     <t>오진우뭐먹어나도줘</t>
   </si>
   <si>
@@ -551,11 +554,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.site.naver.com/1qLyY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목 양식</t>
+    <t>https://www.youtube.com/watch?app=desktop&amp;v=aL62t6nsk4Y</t>
   </si>
   <si>
     <t>해병</t>
@@ -710,7 +709,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/3lUMRPj2vdE?si=X2-ZXOJjziPcpLqn</t>
+    <t>https://www.youtube.com/watch?si=X2-ZXOJjziPcpLqn&amp;v=3lUMRPj2vdE&amp;feature=youtu.be</t>
   </si>
   <si>
     <t>썸네일</t>
@@ -724,11 +723,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/BReIj2NSqHw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 동영상</t>
+    <t>https://youtu.be/FJNCCRCqKKs?si=vcTIssEXQ7bjR6ar</t>
   </si>
   <si>
     <t>온도와 해류 변화에 따른 성게 서식지 변화 예측</t>
@@ -1338,11 +1333,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/YG1i9N3xv5M?si=GOrccz7jmdswt2Xb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일부 공개</t>
+    <t>https://youtu.be/-arx11iPcXo?si=ZwjScksFl11Bmqn_</t>
   </si>
   <si>
     <t>해저 광물 자원 채굴의 경제적 잠재력 분석</t>
@@ -1375,9 +1366,6 @@
   </si>
   <si>
     <t>https://m.site.naver.com/1qSEG</t>
-  </si>
-  <si>
-    <t>영상 링크 큐알 안 열림</t>
   </si>
   <si>
     <t>수온와 수심 등의 변화에 따른 최적의 양식장 위치 변화 예측</t>
@@ -1487,7 +1475,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1495,14 +1483,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1511,14 +1499,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1526,7 +1514,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1535,7 +1523,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1550,7 +1538,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1569,7 +1557,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1771,7 +1759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1834,9 +1822,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2547,117 +2532,117 @@
   </sheetPr>
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D41" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
-    <col min="7" max="12" width="10.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="10.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="27" style="1" customWidth="1"/>
-    <col min="15" max="19" width="6.375" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="43.5" style="1" customWidth="1"/>
+    <col min="15" max="19" width="6.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="43.42578125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:20" ht="29.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="22.5" customHeight="1"/>
     <row r="3" spans="1:20">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="39" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="32.25" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="4" t="s">
         <v>16</v>
       </c>
@@ -2673,9 +2658,9 @@
       <c r="S4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="40"/>
-    </row>
-    <row r="5" spans="1:20" ht="33">
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" ht="30.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2685,8 +2670,8 @@
       <c r="C5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7">
@@ -2721,7 +2706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="15.75">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -2731,13 +2716,13 @@
       <c r="C6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>6666</v>
+        <v>1208</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8">
@@ -2765,7 +2750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="33">
+    <row r="7" spans="1:20" ht="27.75">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -2775,8 +2760,8 @@
       <c r="C7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="7">
@@ -2813,7 +2798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="33">
+    <row r="8" spans="1:20" ht="30.75">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -2823,8 +2808,8 @@
       <c r="C8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7">
@@ -2859,7 +2844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="33">
+    <row r="9" spans="1:20" ht="27.75">
       <c r="A9" s="6">
         <v>88</v>
       </c>
@@ -2869,8 +2854,8 @@
       <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="10">
@@ -2907,7 +2892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="33">
+    <row r="10" spans="1:20" ht="27.75">
       <c r="A10" s="6">
         <v>27</v>
       </c>
@@ -2917,8 +2902,8 @@
       <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="7">
         <v>1</v>
       </c>
@@ -2951,7 +2936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="6">
         <v>39</v>
       </c>
@@ -2961,8 +2946,8 @@
       <c r="C11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="12">
         <v>2</v>
       </c>
@@ -2991,7 +2976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="33">
+    <row r="12" spans="1:20" ht="30.75">
       <c r="A12" s="6">
         <v>60</v>
       </c>
@@ -3001,8 +2986,8 @@
       <c r="C12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="12">
         <v>2</v>
       </c>
@@ -3035,7 +3020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="33">
+    <row r="13" spans="1:20" ht="27.75">
       <c r="A13" s="6">
         <v>63</v>
       </c>
@@ -3045,8 +3030,8 @@
       <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="12">
         <v>2</v>
       </c>
@@ -3075,7 +3060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="33">
+    <row r="14" spans="1:20" ht="15.75">
       <c r="A14" s="6">
         <v>68</v>
       </c>
@@ -3085,8 +3070,8 @@
       <c r="C14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="12">
@@ -3119,7 +3104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="33">
+    <row r="15" spans="1:20" ht="27.75">
       <c r="A15" s="6">
         <v>82</v>
       </c>
@@ -3129,8 +3114,8 @@
       <c r="C15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="10">
@@ -3163,7 +3148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15.75">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -3173,8 +3158,8 @@
       <c r="C16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="7">
         <v>1</v>
       </c>
@@ -3205,7 +3190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="33">
+    <row r="17" spans="1:20" ht="27.75">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -3215,8 +3200,8 @@
       <c r="C17" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="7">
         <v>1</v>
       </c>
@@ -3247,7 +3232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="49.5">
+    <row r="18" spans="1:20" ht="41.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -3257,8 +3242,8 @@
       <c r="C18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="7">
         <v>1</v>
       </c>
@@ -3291,18 +3276,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="49.5">
+    <row r="19" spans="1:20" ht="41.25">
       <c r="A19" s="6">
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="7">
@@ -3335,18 +3320,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="27.75">
       <c r="A20" s="6">
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="7">
@@ -3363,7 +3348,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>73</v>
@@ -3378,21 +3363,21 @@
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75">
       <c r="A21" s="6">
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="7">
         <v>1</v>
       </c>
@@ -3407,7 +3392,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>73</v>
@@ -3420,22 +3405,22 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30.75">
       <c r="A22" s="6">
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="25" t="s">
         <v>97</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -3451,7 +3436,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>73</v>
@@ -3464,21 +3449,21 @@
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30.75">
       <c r="A23" s="6">
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="7">
         <v>1</v>
       </c>
@@ -3493,7 +3478,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>73</v>
@@ -3508,21 +3493,21 @@
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="49.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="45.75">
       <c r="A24" s="6">
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="7">
         <v>1</v>
       </c>
@@ -3537,7 +3522,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>73</v>
@@ -3552,21 +3537,21 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75">
       <c r="A25" s="6">
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="25"/>
+        <v>110</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="7">
         <v>1</v>
       </c>
@@ -3581,7 +3566,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>86</v>
@@ -3594,21 +3579,21 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="49.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="30.75">
       <c r="A26" s="6">
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="25"/>
+        <v>114</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="7">
         <v>1</v>
       </c>
@@ -3623,7 +3608,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>73</v>
@@ -3636,21 +3621,21 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="49.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="27.75">
       <c r="A27" s="6">
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="7">
         <v>1</v>
       </c>
@@ -3665,7 +3650,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>73</v>
@@ -3678,7 +3663,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
@@ -3686,13 +3671,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="25"/>
+        <v>122</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="7">
         <v>1</v>
       </c>
@@ -3707,7 +3692,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>73</v>
@@ -3722,23 +3707,21 @@
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="27.75">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="7">
         <v>1</v>
       </c>
@@ -3771,7 +3754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="33">
+    <row r="30" spans="1:20" ht="30.75">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -3781,8 +3764,8 @@
       <c r="C30" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="7">
         <v>1</v>
       </c>
@@ -3813,7 +3796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="33">
+    <row r="31" spans="1:20" ht="27.75">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -3823,8 +3806,8 @@
       <c r="C31" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="7">
         <v>1</v>
       </c>
@@ -3855,7 +3838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="33">
+    <row r="32" spans="1:20" ht="28.5">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -3865,8 +3848,8 @@
       <c r="C32" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="25"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="7">
         <v>1</v>
       </c>
@@ -3899,7 +3882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="33">
+    <row r="33" spans="1:20" ht="27.75">
       <c r="A33" s="6">
         <v>37</v>
       </c>
@@ -3909,8 +3892,8 @@
       <c r="C33" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="25"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="12">
         <v>2</v>
       </c>
@@ -3937,7 +3920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="33">
+    <row r="34" spans="1:20" ht="27.75">
       <c r="A34" s="6">
         <v>38</v>
       </c>
@@ -3947,8 +3930,8 @@
       <c r="C34" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="12">
@@ -3983,7 +3966,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="33">
+    <row r="35" spans="1:20" ht="30.75">
       <c r="A35" s="6">
         <v>40</v>
       </c>
@@ -3993,8 +3976,8 @@
       <c r="C35" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="24" t="s">
         <v>150</v>
       </c>
       <c r="F35" s="12">
@@ -4023,7 +4006,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="33">
+    <row r="36" spans="1:20" ht="30.75">
       <c r="A36" s="6">
         <v>41</v>
       </c>
@@ -4033,8 +4016,8 @@
       <c r="C36" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="25"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="12">
         <v>2</v>
       </c>
@@ -4061,7 +4044,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="33">
+    <row r="37" spans="1:20" ht="32.25">
       <c r="A37" s="6">
         <v>42</v>
       </c>
@@ -4071,10 +4054,10 @@
       <c r="C37" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="12">
         <v>2</v>
       </c>
@@ -4105,7 +4088,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" ht="15.75">
       <c r="A38" s="6">
         <v>43</v>
       </c>
@@ -4115,10 +4098,8 @@
       <c r="C38" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="25"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="12">
         <v>2</v>
       </c>
@@ -4145,7 +4126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="33">
+    <row r="39" spans="1:20" ht="30.75">
       <c r="A39" s="6">
         <v>45</v>
       </c>
@@ -4155,8 +4136,8 @@
       <c r="C39" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="24" t="s">
         <v>164</v>
       </c>
       <c r="F39" s="12">
@@ -4185,7 +4166,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="33">
+    <row r="40" spans="1:20" ht="30.75">
       <c r="A40" s="6">
         <v>47</v>
       </c>
@@ -4195,8 +4176,8 @@
       <c r="C40" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="24" t="s">
         <v>164</v>
       </c>
       <c r="F40" s="12">
@@ -4225,7 +4206,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="33">
+    <row r="41" spans="1:20" ht="41.25">
       <c r="A41" s="6">
         <v>50</v>
       </c>
@@ -4235,8 +4216,8 @@
       <c r="C41" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="29"/>
+      <c r="E41" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="12">
@@ -4265,7 +4246,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" ht="27.75">
       <c r="A42" s="6">
         <v>51</v>
       </c>
@@ -4275,10 +4256,8 @@
       <c r="C42" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="25"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="12">
         <v>2</v>
       </c>
@@ -4304,21 +4283,21 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="30.75">
       <c r="A43" s="6">
         <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="12">
         <v>2</v>
       </c>
@@ -4344,21 +4323,21 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="33">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="30.75">
       <c r="A44" s="6">
         <v>53</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="29"/>
+      <c r="E44" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F44" s="12">
@@ -4390,22 +4369,22 @@
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="27.75">
       <c r="A45" s="6">
         <v>54</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="F45" s="12">
         <v>2</v>
@@ -4430,21 +4409,21 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="33">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="30.75">
       <c r="A46" s="6">
         <v>57</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="12">
         <v>2</v>
       </c>
@@ -4470,21 +4449,21 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.75">
       <c r="A47" s="6">
         <v>58</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="25"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="12">
         <v>2</v>
       </c>
@@ -4514,21 +4493,21 @@
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="33">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="27.75">
       <c r="A48" s="6">
         <v>61</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="25"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="12">
         <v>2</v>
       </c>
@@ -4556,21 +4535,21 @@
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="33">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="30.75">
       <c r="A49" s="6">
         <v>62</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="25"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="12">
         <v>2</v>
       </c>
@@ -4598,21 +4577,21 @@
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="33">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="30.75">
       <c r="A50" s="6">
         <v>64</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="25"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="12">
         <v>2</v>
       </c>
@@ -4640,23 +4619,21 @@
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="30.75">
       <c r="A51" s="6">
         <v>65</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F51" s="12">
@@ -4688,21 +4665,21 @@
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="33">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="30.75">
       <c r="A52" s="6">
         <v>67</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="25"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="12">
         <v>2</v>
       </c>
@@ -4726,21 +4703,21 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15.75">
       <c r="A53" s="6">
         <v>70</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="25"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="12">
         <v>2</v>
       </c>
@@ -4766,21 +4743,21 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="33">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="30.75">
       <c r="A54" s="6">
         <v>71</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="25"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="12">
         <v>2</v>
       </c>
@@ -4806,21 +4783,21 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="33">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="30.75">
       <c r="A55" s="6">
         <v>72</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="23" t="s">
+      <c r="D55" s="29"/>
+      <c r="E55" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="12">
@@ -4850,21 +4827,21 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="33">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="27.75">
       <c r="A56" s="6">
         <v>73</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="30"/>
+      <c r="E56" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F56" s="12">
@@ -4890,21 +4867,21 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="33">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="30.75">
       <c r="A57" s="6">
         <v>74</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="25" t="s">
+      <c r="D57" s="30"/>
+      <c r="E57" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="12">
@@ -4934,22 +4911,22 @@
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="33">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="30.75">
       <c r="A58" s="6">
         <v>77</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="25" t="s">
-        <v>185</v>
+      <c r="D58" s="30"/>
+      <c r="E58" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="F58" s="12">
         <v>2</v>
@@ -4974,21 +4951,21 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="27.75">
       <c r="A59" s="6">
         <v>78</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="25" t="s">
+      <c r="D59" s="29"/>
+      <c r="E59" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F59" s="12">
@@ -5014,21 +4991,21 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="33">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="27.75">
       <c r="A60" s="6">
         <v>80</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="25"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="10">
         <v>3</v>
       </c>
@@ -5043,7 +5020,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>73</v>
@@ -5056,21 +5033,21 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15.75">
       <c r="A61" s="6">
         <v>83</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="25"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="10">
         <v>3</v>
       </c>
@@ -5085,7 +5062,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>73</v>
@@ -5098,21 +5075,21 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="33">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="30.75">
       <c r="A62" s="6">
         <v>84</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="25" t="s">
+      <c r="D62" s="30"/>
+      <c r="E62" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F62" s="10">
@@ -5129,7 +5106,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N62" s="9" t="s">
         <v>73</v>
@@ -5144,21 +5121,21 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="33">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="27.75">
       <c r="A63" s="6">
         <v>85</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="25" t="s">
+      <c r="D63" s="29"/>
+      <c r="E63" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="10">
@@ -5175,7 +5152,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N63" s="9" t="s">
         <v>73</v>
@@ -5192,21 +5169,21 @@
         <v>1</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="33">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="27.75">
       <c r="A64" s="6">
         <v>86</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="25" t="s">
+      <c r="D64" s="30"/>
+      <c r="E64" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F64" s="10">
@@ -5225,7 +5202,7 @@
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N64" s="9" t="s">
         <v>73</v>
@@ -5238,21 +5215,21 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="33">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="30.75">
       <c r="A65" s="6">
         <v>87</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="25"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="10">
         <v>3</v>
       </c>
@@ -5267,7 +5244,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N65" s="9" t="s">
         <v>73</v>
@@ -5282,22 +5259,22 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="15.75">
       <c r="A66" s="6">
         <v>89</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="D66" s="35"/>
+      <c r="E66" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="F66" s="10">
         <v>3</v>
@@ -5313,7 +5290,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N66" s="9" t="s">
         <v>73</v>
@@ -5326,22 +5303,22 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="33">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="27.75">
       <c r="A67" s="6">
         <v>91</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="25" t="s">
-        <v>255</v>
+      <c r="D67" s="26"/>
+      <c r="E67" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="F67" s="10">
         <v>3</v>
@@ -5357,7 +5334,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
       <c r="M67" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N67" s="9" t="s">
         <v>73</v>
@@ -5370,22 +5347,22 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="49.5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="45.75">
       <c r="A68" s="6">
         <v>92</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="D68" s="36"/>
+      <c r="E68" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="D68" s="37"/>
-      <c r="E68" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="F68" s="10">
         <v>3</v>
@@ -5401,7 +5378,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N68" s="9" t="s">
         <v>73</v>
@@ -5416,21 +5393,21 @@
         <v>1</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="33">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="27.75">
       <c r="A69" s="6">
         <v>93</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="25" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="10">
@@ -5447,7 +5424,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
       <c r="M69" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N69" s="9" t="s">
         <v>73</v>
@@ -5462,21 +5439,21 @@
       </c>
       <c r="S69" s="6"/>
       <c r="T69" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="33">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="27.75">
       <c r="A70" s="6">
         <v>94</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="25" t="s">
+      <c r="D70" s="30"/>
+      <c r="E70" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="10">
@@ -5493,7 +5470,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N70" s="9" t="s">
         <v>73</v>
@@ -5508,21 +5485,21 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="15.75">
       <c r="A71" s="6">
         <v>95</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="25" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F71" s="10">
@@ -5539,7 +5516,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N71" s="9" t="s">
         <v>73</v>
@@ -5552,21 +5529,21 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.75">
       <c r="A72" s="6">
         <v>11</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D72" s="30"/>
-      <c r="E72" s="25"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="7">
         <v>1</v>
       </c>
@@ -5581,10 +5558,10 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="N72" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="O72" s="6">
         <v>1</v>
@@ -5594,21 +5571,21 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="33">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="27.75">
       <c r="A73" s="6">
         <v>14</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="25" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F73" s="7">
@@ -5625,10 +5602,10 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O73" s="6">
         <v>1</v>
@@ -5640,21 +5617,21 @@
       </c>
       <c r="S73" s="6"/>
       <c r="T73" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="33">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="30.75">
       <c r="A74" s="6">
         <v>15</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="25" t="s">
+      <c r="D74" s="29"/>
+      <c r="E74" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F74" s="7">
@@ -5671,10 +5648,10 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="N74" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>291</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -5682,21 +5659,21 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.75">
       <c r="A75" s="6">
         <v>23</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="25"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="7">
         <v>1</v>
       </c>
@@ -5711,10 +5688,10 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O75" s="6">
         <v>1</v>
@@ -5726,21 +5703,21 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="33">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="30.75">
       <c r="A76" s="6">
         <v>29</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C76" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="25"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="7">
         <v>1</v>
       </c>
@@ -5757,10 +5734,10 @@
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O76" s="6">
         <v>1</v>
@@ -5772,21 +5749,21 @@
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="33">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="30.75">
       <c r="A77" s="6">
         <v>30</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="25"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="7">
         <v>1</v>
       </c>
@@ -5801,10 +5778,10 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O77" s="6">
         <v>1</v>
@@ -5814,21 +5791,21 @@
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="33">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75">
       <c r="A78" s="6">
         <v>31</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="25"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="7">
         <v>1</v>
       </c>
@@ -5845,10 +5822,10 @@
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O78" s="6">
         <v>1</v>
@@ -5858,21 +5835,21 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="33">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="30.75">
       <c r="A79" s="6">
         <v>33</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="25" t="s">
+      <c r="D79" s="30"/>
+      <c r="E79" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F79" s="7">
@@ -5889,10 +5866,10 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O79" s="6">
         <v>1</v>
@@ -5902,22 +5879,22 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="33">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="27.75">
       <c r="A80" s="6">
         <v>36</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="25" t="s">
-        <v>97</v>
+      <c r="D80" s="30"/>
+      <c r="E80" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="F80" s="12">
         <v>2</v>
@@ -5934,7 +5911,7 @@
       <c r="L80" s="12"/>
       <c r="M80" s="14"/>
       <c r="N80" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -5942,21 +5919,21 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="33">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="30.75">
       <c r="A81" s="6">
         <v>55</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="23" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F81" s="12">
@@ -5974,7 +5951,7 @@
       <c r="L81" s="12"/>
       <c r="M81" s="14"/>
       <c r="N81" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
@@ -5982,22 +5959,22 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="33">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="30.75">
       <c r="A82" s="6">
         <v>56</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="D82" s="29"/>
+      <c r="E82" s="24" t="s">
         <v>320</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="25" t="s">
-        <v>321</v>
       </c>
       <c r="F82" s="12">
         <v>2</v>
@@ -6014,7 +5991,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="14"/>
       <c r="N82" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -6024,21 +6001,21 @@
         <v>1</v>
       </c>
       <c r="T82" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="33">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="27.75">
       <c r="A83" s="6">
         <v>69</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="23" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F83" s="12">
@@ -6055,10 +6032,10 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -6066,21 +6043,21 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="33">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="30.75">
       <c r="A84" s="6">
         <v>76</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C84" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="25"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="12">
         <v>2</v>
       </c>
@@ -6096,7 +6073,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="14"/>
       <c r="N84" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
@@ -6104,21 +6081,21 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="33">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="30.75">
       <c r="A85" s="6">
         <v>79</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="C85" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D85" s="30"/>
-      <c r="E85" s="25" t="s">
+      <c r="D85" s="29"/>
+      <c r="E85" s="24" t="s">
         <v>171</v>
       </c>
       <c r="F85" s="10">
@@ -6137,10 +6114,10 @@
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -6150,22 +6127,22 @@
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="33">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="27.75">
       <c r="A86" s="6">
         <v>90</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C86" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="25" t="s">
-        <v>185</v>
+      <c r="D86" s="29"/>
+      <c r="E86" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="F86" s="10">
         <v>3</v>
@@ -6181,10 +6158,10 @@
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O86" s="6">
         <v>1</v>
@@ -6198,21 +6175,21 @@
         <v>1</v>
       </c>
       <c r="T86" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="33">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="30.75">
       <c r="A87" s="6">
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="25"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="24"/>
       <c r="F87" s="7">
         <v>1</v>
       </c>
@@ -6227,10 +6204,10 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="N87" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="O87" s="6">
         <v>1</v>
@@ -6240,21 +6217,21 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="33">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="15.75">
       <c r="A88" s="6">
         <v>12</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C88" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D88" s="30"/>
-      <c r="E88" s="25"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="24"/>
       <c r="F88" s="7">
         <v>1</v>
       </c>
@@ -6269,10 +6246,10 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -6282,21 +6259,21 @@
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="15.75">
       <c r="A89" s="6">
         <v>25</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="25"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="7">
         <v>1</v>
       </c>
@@ -6311,10 +6288,10 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O89" s="6">
         <v>1</v>
@@ -6324,23 +6301,21 @@
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="33">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="27.75">
       <c r="A90" s="6">
         <v>34</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C90" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="E90" s="25"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="12">
         <v>2</v>
       </c>
@@ -6356,7 +6331,7 @@
       <c r="L90" s="12"/>
       <c r="M90" s="14"/>
       <c r="N90" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O90" s="6">
         <v>1</v>
@@ -6368,21 +6343,21 @@
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="15.75">
       <c r="A91" s="6">
         <v>35</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="25"/>
+        <v>354</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="12">
         <v>2</v>
       </c>
@@ -6398,7 +6373,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="14"/>
       <c r="N91" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
@@ -6410,21 +6385,21 @@
         <v>1</v>
       </c>
       <c r="T91" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="33">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="28.5">
       <c r="A92" s="6">
         <v>44</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D92" s="32"/>
-      <c r="E92" s="25"/>
+        <v>357</v>
+      </c>
+      <c r="D92" s="31"/>
+      <c r="E92" s="24"/>
       <c r="F92" s="12">
         <v>2</v>
       </c>
@@ -6440,7 +6415,7 @@
       <c r="L92" s="12"/>
       <c r="M92" s="14"/>
       <c r="N92" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
@@ -6448,23 +6423,21 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="33">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="30.75">
       <c r="A93" s="6">
         <v>46</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E93" s="25"/>
+        <v>359</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" s="30"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="12">
         <v>2</v>
       </c>
@@ -6480,7 +6453,7 @@
       <c r="L93" s="12"/>
       <c r="M93" s="14"/>
       <c r="N93" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -6490,21 +6463,21 @@
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="33">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="15.75">
       <c r="A94" s="6">
         <v>48</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="25"/>
+        <v>363</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="24"/>
       <c r="F94" s="12">
         <v>2</v>
       </c>
@@ -6519,10 +6492,10 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
@@ -6530,21 +6503,21 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="33">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="30.75">
       <c r="A95" s="6">
         <v>49</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="37" t="s">
         <v>23</v>
       </c>
       <c r="F95" s="12">
@@ -6562,7 +6535,7 @@
       <c r="L95" s="12"/>
       <c r="M95" s="14"/>
       <c r="N95" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O95" s="6">
         <v>1</v>
@@ -6574,7 +6547,7 @@
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20.45" customHeight="1">
@@ -6582,14 +6555,14 @@
         <v>59</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="25" t="s">
-        <v>255</v>
+        <v>370</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="F96" s="12">
         <v>2</v>
@@ -6606,7 +6579,7 @@
       <c r="L96" s="12"/>
       <c r="M96" s="14"/>
       <c r="N96" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -6614,21 +6587,21 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="33">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="27.75">
       <c r="A97" s="6">
         <v>66</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F97" s="12">
@@ -6646,7 +6619,7 @@
       <c r="L97" s="12"/>
       <c r="M97" s="14"/>
       <c r="N97" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
@@ -6654,21 +6627,21 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="33">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="30.75">
       <c r="A98" s="6">
         <v>75</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F98" s="12">
@@ -6686,7 +6659,7 @@
       <c r="L98" s="12"/>
       <c r="M98" s="14"/>
       <c r="N98" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -6694,21 +6667,21 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="33">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="30.75">
       <c r="A99" s="6">
         <v>81</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F99" s="10">
@@ -6725,10 +6698,10 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O99" s="6">
         <v>1</v>
@@ -6740,18 +6713,18 @@
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="33">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="30.75">
       <c r="A100" s="6">
         <v>96</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>386</v>
+      <c r="B100" s="33" t="s">
+        <v>383</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="18"/>
@@ -6769,10 +6742,10 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O100" s="6">
         <v>1</v>
@@ -6784,12 +6757,12 @@
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="15.75">
       <c r="A101" s="9"/>
-      <c r="B101" s="33"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="9"/>
       <c r="D101" s="19"/>
       <c r="E101" s="9"/>
@@ -6800,7 +6773,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>25</v>
@@ -6816,7 +6789,7 @@
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
     </row>
-    <row r="102" spans="1:20" ht="30">
+    <row r="102" spans="1:20" ht="30.75">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -6829,10 +6802,10 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N102" s="9">
         <f>COUNTIF($N$5:$N$100,M102)</f>
@@ -6845,7 +6818,7 @@
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" ht="15.75">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -6858,10 +6831,10 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N103" s="9">
         <f>COUNTIF($N$5:$N$100,M103)</f>
@@ -6874,7 +6847,7 @@
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" ht="30.75">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -6887,7 +6860,7 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>73</v>
@@ -6950,7 +6923,7 @@
     <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:E1 A93:B93 D93:XFD93 A94:XFD1048576 A92:C92 E92:XFD92 A5:XFD66 A67:C67 E67:XFD67 A68:XFD91">
+  <conditionalFormatting sqref="A1:E1 A5:XFD66 A67:C67 E67:XFD67 A68:XFD91 A92:C92 E92:XFD92 A93:B93 D93:XFD93 A94:XFD1048576">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"해양 선박 관련 기술"</formula>
     </cfRule>
@@ -7064,9 +7037,11 @@
     <hyperlink ref="C71" r:id="rId92" xr:uid="{09CAE909-5DC9-418E-8455-6BA0ADED58D4}"/>
     <hyperlink ref="C18" r:id="rId93" xr:uid="{4BFF76A0-3264-4CF4-B268-C15BB1CAEFD8}"/>
     <hyperlink ref="C93" r:id="rId94" xr:uid="{BD99E754-824A-44F6-A1C4-89E226012665}"/>
+    <hyperlink ref="C19" r:id="rId95" xr:uid="{18C5DA7B-D275-4DAE-8863-4AC68972ED86}"/>
+    <hyperlink ref="C20" r:id="rId96" xr:uid="{D831EE1B-2413-4ACA-B297-31D966148365}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId95"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -7082,6 +7057,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003F0E1D52D3165C43B71876C50E262561" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="2ad6e6e47ce7ca690a3b0732f8c58809">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1ec7bdc9-c35f-44fb-bc12-eea0df72f52c" xmlns:ns3="0085f31d-9ba7-42e2-9355-3cfee2649550" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d527007f536823eb2a0f11db1a80cd8" ns2:_="" ns3:_="">
     <xsd:import namespace="1ec7bdc9-c35f-44fb-bc12-eea0df72f52c"/>
@@ -7282,23 +7266,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25E48C8B-3F93-42B5-BC1A-441EBCBD88B9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85D601E-4F51-4558-A344-0A26E73BC774}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3862B381-0521-4BC3-A226-0E3E2025679D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3862B381-0521-4BC3-A226-0E3E2025679D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B17F2E5-C8C5-4C1A-90BD-A73C793C8DC3}"/>
 </file>